--- a/Technology/Hardware/Rambus.xlsx
+++ b/Technology/Hardware/Rambus.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17C4ECA2-0D52-2E42-B73D-06EB5BF7B9DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF547AB-CC42-1840-B163-B87A2F129F13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1017,6 +1017,12 @@
       <alignment indent="1"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1028,12 +1034,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2467,13 +2467,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>51.88</v>
+    <v>59.95</v>
     <v>20</v>
-    <v>1.3222</v>
-    <v>-0.06</v>
-    <v>-1.2160000000000001E-3</v>
-    <v>0</v>
-    <v>0</v>
+    <v>1.3154999999999999</v>
+    <v>0.76</v>
+    <v>1.2945E-2</v>
+    <v>0.01</v>
+    <v>1.6820000000000002E-4</v>
     <v>USD</v>
     <v>Rambus Inc. is a provider of chips and intellectual property (IP) that enable performance improvements for data centers and other markets. The Company's memory subsystems provide chips and IP, which provide security in data-intensive systems. It offers a balanced and diverse portfolio of solutions across chips, silicon IP and patent licensing. Its Rambus Double Data Rate (DDR) memory interface chips for server memory modules enable increased bandwidth and expanded capacity in enterprise and cloud servers. Its portfolio includes DDR5 and DDR4 memory interface chipsets. Its DDR5 chipset solution includes the Registering Clock Driver (RCD), Serial Presence Detect Hubs (SPD Hub) and Temperature Sensors (TS). Rambus Silicon IP includes interface and security IP solutions that move and protect data in advanced data center, government and automotive applications. It sells memory interface chips directly and indirectly to memory module manufacturers and original equipment manufacturers (OEMs).</v>
     <v>765</v>
@@ -2481,25 +2481,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>4453 North First Street, Suite 100, SAN JOSE, CA, 95134 US</v>
-    <v>49.604999999999997</v>
+    <v>59.95</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45037.999541978905</v>
+    <v>45065.948473332814</v>
     <v>0</v>
-    <v>48.39</v>
-    <v>5365361000</v>
+    <v>57.75</v>
+    <v>6473024044</v>
     <v>RAMBUS INC.</v>
     <v>RAMBUS INC.</v>
-    <v>49.33</v>
-    <v>156.20490000000001</v>
-    <v>49.36</v>
-    <v>49.3</v>
-    <v>49.3</v>
-    <v>108830800</v>
+    <v>59.27</v>
+    <v>118.1621</v>
+    <v>58.71</v>
+    <v>59.47</v>
+    <v>59.48</v>
+    <v>108845200</v>
     <v>RMBS</v>
     <v>RAMBUS INC. (XNAS:RMBS)</v>
-    <v>841297</v>
-    <v>1230315</v>
+    <v>1947275</v>
+    <v>1310492</v>
     <v>1997</v>
   </rv>
   <rv s="2">
@@ -3087,10 +3087,10 @@
   <dimension ref="A1:AO118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AD85" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AC96" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AI100" sqref="AI100"/>
+      <selection pane="bottomRight" activeCell="AE116" sqref="AE116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4948,15 +4948,15 @@
       </c>
       <c r="AM16" s="23">
         <f>AN101/AF3</f>
-        <v>11.797369352650547</v>
+        <v>14.23290165855675</v>
       </c>
       <c r="AN16" s="23">
         <f>AN101/AF28</f>
-        <v>-374.93787561146053</v>
+        <v>-452.34270048916841</v>
       </c>
       <c r="AO16" s="24">
         <f>AN101/AF106</f>
-        <v>23.287965727976665</v>
+        <v>28.095697958262441</v>
       </c>
     </row>
     <row r="17" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -11646,10 +11646,10 @@
       <c r="AF83" s="1">
         <v>-12702000</v>
       </c>
-      <c r="AM83" s="60" t="s">
+      <c r="AM83" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="AN83" s="61"/>
+      <c r="AN83" s="63"/>
     </row>
     <row r="84" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -11748,10 +11748,10 @@
       <c r="AF84" s="1">
         <v>11975000</v>
       </c>
-      <c r="AM84" s="62" t="s">
+      <c r="AM84" s="64" t="s">
         <v>116</v>
       </c>
-      <c r="AN84" s="63"/>
+      <c r="AN84" s="65"/>
     </row>
     <row r="85" spans="1:40" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -12721,10 +12721,10 @@
       <c r="AF93" s="1">
         <v>-40556000</v>
       </c>
-      <c r="AM93" s="62" t="s">
+      <c r="AM93" s="64" t="s">
         <v>124</v>
       </c>
-      <c r="AN93" s="63"/>
+      <c r="AN93" s="65"/>
     </row>
     <row r="94" spans="1:40" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -12932,7 +12932,7 @@
       </c>
       <c r="AN95" s="34" cm="1">
         <f t="array" ref="AN95">_FV(A1,"Beta")</f>
-        <v>1.3222</v>
+        <v>1.3154999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:40" ht="20" x14ac:dyDescent="0.25">
@@ -13141,7 +13141,7 @@
       </c>
       <c r="AN97" s="31">
         <f>(AN94)+((AN95)*(AN96-AN94))</f>
-        <v>9.787071E-2</v>
+        <v>9.7582274999999996E-2</v>
       </c>
     </row>
     <row r="98" spans="1:40" ht="19" x14ac:dyDescent="0.25">
@@ -13241,10 +13241,10 @@
       <c r="AF98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AM98" s="62" t="s">
+      <c r="AM98" s="64" t="s">
         <v>129</v>
       </c>
-      <c r="AN98" s="63"/>
+      <c r="AN98" s="65"/>
     </row>
     <row r="99" spans="1:40" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -13453,7 +13453,7 @@
       </c>
       <c r="AN100" s="29">
         <f>AN99/AN103</f>
-        <v>8.2222364350012442E-3</v>
+        <v>6.8248508746378504E-3</v>
       </c>
     </row>
     <row r="101" spans="1:40" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -13558,7 +13558,7 @@
       </c>
       <c r="AN101" s="35" cm="1">
         <f t="array" ref="AN101">_FV(A1,"Market cap",TRUE)</f>
-        <v>5365361000</v>
+        <v>6473024044</v>
       </c>
     </row>
     <row r="102" spans="1:40" ht="20" x14ac:dyDescent="0.25">
@@ -13663,7 +13663,7 @@
       </c>
       <c r="AN102" s="29">
         <f>AN101/AN103</f>
-        <v>0.9917777635649988</v>
+        <v>0.9931751491253622</v>
       </c>
     </row>
     <row r="103" spans="1:40" ht="20" x14ac:dyDescent="0.25">
@@ -13768,7 +13768,7 @@
       </c>
       <c r="AN103" s="36">
         <f>AN99+AN101</f>
-        <v>5409842000</v>
+        <v>6517505044</v>
       </c>
     </row>
     <row r="104" spans="1:40" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -13868,10 +13868,10 @@
       <c r="AF104" s="11">
         <v>125694000</v>
       </c>
-      <c r="AM104" s="62" t="s">
+      <c r="AM104" s="64" t="s">
         <v>135</v>
       </c>
-      <c r="AN104" s="63"/>
+      <c r="AN104" s="65"/>
     </row>
     <row r="105" spans="1:40" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="58" t="s">
@@ -14009,7 +14009,7 @@
       </c>
       <c r="AN105" s="39">
         <f>(AN100*AN92)+(AN102*AN97)</f>
-        <v>9.7699484654142507E-2</v>
+        <v>9.7442118270686787E-2</v>
       </c>
     </row>
     <row r="106" spans="1:40" ht="19" x14ac:dyDescent="0.25">
@@ -14179,7 +14179,7 @@
       <c r="AJ107" s="41"/>
       <c r="AK107" s="44">
         <f>AK106*(1+AN107)/(AN108-AN107)</f>
-        <v>6238014591.8340673</v>
+        <v>6260176495.623868</v>
       </c>
       <c r="AL107" s="45" t="s">
         <v>139</v>
@@ -14210,7 +14210,7 @@
       </c>
       <c r="AK108" s="44">
         <f>AK107+AK106</f>
-        <v>6680454051.4353924</v>
+        <v>6702615955.225193</v>
       </c>
       <c r="AL108" s="45" t="s">
         <v>134</v>
@@ -14220,14 +14220,14 @@
       </c>
       <c r="AN108" s="49">
         <f>AN105</f>
-        <v>9.7699484654142507E-2</v>
+        <v>9.7442118270686787E-2</v>
       </c>
     </row>
     <row r="109" spans="1:40" ht="19" x14ac:dyDescent="0.25">
-      <c r="AG109" s="64" t="s">
+      <c r="AG109" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="AH109" s="65"/>
+      <c r="AH109" s="61"/>
     </row>
     <row r="110" spans="1:40" ht="20" x14ac:dyDescent="0.25">
       <c r="AG110" s="50" t="s">
@@ -14235,7 +14235,7 @@
       </c>
       <c r="AH110" s="35">
         <f>NPV(AN108,AG108,AH108,AI108,AJ108,AK108)</f>
-        <v>5204171997.3844757</v>
+        <v>5223616092.7084322</v>
       </c>
     </row>
     <row r="111" spans="1:40" ht="20" x14ac:dyDescent="0.25">
@@ -14262,7 +14262,7 @@
       </c>
       <c r="AH113" s="35">
         <f>AH110+AH111-AH112</f>
-        <v>5472916997.3844757</v>
+        <v>5492361092.7084322</v>
       </c>
     </row>
     <row r="114" spans="33:34" ht="20" x14ac:dyDescent="0.25">
@@ -14280,7 +14280,7 @@
       </c>
       <c r="AH115" s="53">
         <f>AH113/AH114</f>
-        <v>50.233388985425478</v>
+        <v>50.411857397123441</v>
       </c>
     </row>
     <row r="116" spans="33:34" ht="20" x14ac:dyDescent="0.25">
@@ -14289,7 +14289,7 @@
       </c>
       <c r="AH116" s="54" cm="1">
         <f t="array" ref="AH116">_FV(A1,"Price")</f>
-        <v>49.3</v>
+        <v>59.47</v>
       </c>
     </row>
     <row r="117" spans="33:34" ht="20" x14ac:dyDescent="0.25">
@@ -14298,7 +14298,7 @@
       </c>
       <c r="AH117" s="56">
         <f>AH115/AH116-1</f>
-        <v>1.8932839460963136E-2</v>
+        <v>-0.15231448802550118</v>
       </c>
     </row>
     <row r="118" spans="33:34" ht="20" x14ac:dyDescent="0.25">
@@ -14307,7 +14307,7 @@
       </c>
       <c r="AH118" s="57" t="str">
         <f>IF(AH115&gt;AH116,"BUY","SELL")</f>
-        <v>BUY</v>
+        <v>SELL</v>
       </c>
     </row>
   </sheetData>

--- a/Technology/Hardware/Rambus.xlsx
+++ b/Technology/Hardware/Rambus.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF547AB-CC42-1840-B163-B87A2F129F13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6185445-FD13-B049-A87D-7490AD386596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2467,13 +2467,11 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>59.95</v>
+    <v>68.540000000000006</v>
     <v>20</v>
-    <v>1.3154999999999999</v>
-    <v>0.76</v>
-    <v>1.2945E-2</v>
-    <v>0.01</v>
-    <v>1.6820000000000002E-4</v>
+    <v>1.2709999999999999</v>
+    <v>1.94</v>
+    <v>3.2848000000000002E-2</v>
     <v>USD</v>
     <v>Rambus Inc. is a provider of chips and intellectual property (IP) that enable performance improvements for data centers and other markets. The Company's memory subsystems provide chips and IP, which provide security in data-intensive systems. It offers a balanced and diverse portfolio of solutions across chips, silicon IP and patent licensing. Its Rambus Double Data Rate (DDR) memory interface chips for server memory modules enable increased bandwidth and expanded capacity in enterprise and cloud servers. Its portfolio includes DDR5 and DDR4 memory interface chipsets. Its DDR5 chipset solution includes the Registering Clock Driver (RCD), Serial Presence Detect Hubs (SPD Hub) and Temperature Sensors (TS). Rambus Silicon IP includes interface and security IP solutions that move and protect data in advanced data center, government and automotive applications. It sells memory interface chips directly and indirectly to memory module manufacturers and original equipment manufacturers (OEMs).</v>
     <v>765</v>
@@ -2481,25 +2479,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>4453 North First Street, Suite 100, SAN JOSE, CA, 95134 US</v>
-    <v>59.95</v>
+    <v>61.08</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45065.948473332814</v>
+    <v>45099.994530728909</v>
     <v>0</v>
-    <v>57.75</v>
-    <v>6473024044</v>
+    <v>58.2</v>
+    <v>6639557200</v>
     <v>RAMBUS INC.</v>
     <v>RAMBUS INC.</v>
-    <v>59.27</v>
-    <v>118.1621</v>
-    <v>58.71</v>
-    <v>59.47</v>
-    <v>59.48</v>
+    <v>58.91</v>
+    <v>122.771</v>
+    <v>59.06</v>
+    <v>61</v>
     <v>108845200</v>
     <v>RMBS</v>
     <v>RAMBUS INC. (XNAS:RMBS)</v>
-    <v>1947275</v>
-    <v>1310492</v>
+    <v>19</v>
+    <v>1812238</v>
     <v>1997</v>
   </rv>
   <rv s="2">
@@ -2531,8 +2528,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2553,7 +2548,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2570,7 +2564,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2581,16 +2575,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2656,19 +2647,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2713,9 +2698,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2723,9 +2705,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3090,7 +3069,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="AC96" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AE116" sqref="AE116"/>
+      <selection pane="bottomRight" activeCell="AE120" sqref="AE120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4948,15 +4927,15 @@
       </c>
       <c r="AM16" s="23">
         <f>AN101/AF3</f>
-        <v>14.23290165855675</v>
+        <v>14.599075183654982</v>
       </c>
       <c r="AN16" s="23">
         <f>AN101/AF28</f>
-        <v>-452.34270048916841</v>
+        <v>-463.98023759608662</v>
       </c>
       <c r="AO16" s="24">
         <f>AN101/AF106</f>
-        <v>28.095697958262441</v>
+        <v>28.818523212611549</v>
       </c>
     </row>
     <row r="17" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -12932,7 +12911,7 @@
       </c>
       <c r="AN95" s="34" cm="1">
         <f t="array" ref="AN95">_FV(A1,"Beta")</f>
-        <v>1.3154999999999999</v>
+        <v>1.2709999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:40" ht="20" x14ac:dyDescent="0.25">
@@ -13141,7 +13120,7 @@
       </c>
       <c r="AN97" s="31">
         <f>(AN94)+((AN95)*(AN96-AN94))</f>
-        <v>9.7582274999999996E-2</v>
+        <v>9.5666550000000003E-2</v>
       </c>
     </row>
     <row r="98" spans="1:40" ht="19" x14ac:dyDescent="0.25">
@@ -13453,7 +13432,7 @@
       </c>
       <c r="AN100" s="29">
         <f>AN99/AN103</f>
-        <v>6.8248508746378504E-3</v>
+        <v>6.6548093635969948E-3</v>
       </c>
     </row>
     <row r="101" spans="1:40" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -13558,7 +13537,7 @@
       </c>
       <c r="AN101" s="35" cm="1">
         <f t="array" ref="AN101">_FV(A1,"Market cap",TRUE)</f>
-        <v>6473024044</v>
+        <v>6639557200</v>
       </c>
     </row>
     <row r="102" spans="1:40" ht="20" x14ac:dyDescent="0.25">
@@ -13663,7 +13642,7 @@
       </c>
       <c r="AN102" s="29">
         <f>AN101/AN103</f>
-        <v>0.9931751491253622</v>
+        <v>0.99334519063640303</v>
       </c>
     </row>
     <row r="103" spans="1:40" ht="20" x14ac:dyDescent="0.25">
@@ -13768,7 +13747,7 @@
       </c>
       <c r="AN103" s="36">
         <f>AN99+AN101</f>
-        <v>6517505044</v>
+        <v>6684038200</v>
       </c>
     </row>
     <row r="104" spans="1:40" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -14009,7 +13988,7 @@
       </c>
       <c r="AN105" s="39">
         <f>(AN100*AN92)+(AN102*AN97)</f>
-        <v>9.7442118270686787E-2</v>
+        <v>9.5542634067484172E-2</v>
       </c>
     </row>
     <row r="106" spans="1:40" ht="19" x14ac:dyDescent="0.25">
@@ -14179,7 +14158,7 @@
       <c r="AJ107" s="41"/>
       <c r="AK107" s="44">
         <f>AK106*(1+AN107)/(AN108-AN107)</f>
-        <v>6260176495.623868</v>
+        <v>6428742732.4803228</v>
       </c>
       <c r="AL107" s="45" t="s">
         <v>139</v>
@@ -14210,7 +14189,7 @@
       </c>
       <c r="AK108" s="44">
         <f>AK107+AK106</f>
-        <v>6702615955.225193</v>
+        <v>6871182192.0816479</v>
       </c>
       <c r="AL108" s="45" t="s">
         <v>134</v>
@@ -14220,7 +14199,7 @@
       </c>
       <c r="AN108" s="49">
         <f>AN105</f>
-        <v>9.7442118270686787E-2</v>
+        <v>9.5542634067484172E-2</v>
       </c>
     </row>
     <row r="109" spans="1:40" ht="19" x14ac:dyDescent="0.25">
@@ -14235,7 +14214,7 @@
       </c>
       <c r="AH110" s="35">
         <f>NPV(AN108,AG108,AH108,AI108,AJ108,AK108)</f>
-        <v>5223616092.7084322</v>
+        <v>5371539143.8280497</v>
       </c>
     </row>
     <row r="111" spans="1:40" ht="20" x14ac:dyDescent="0.25">
@@ -14262,7 +14241,7 @@
       </c>
       <c r="AH113" s="35">
         <f>AH110+AH111-AH112</f>
-        <v>5492361092.7084322</v>
+        <v>5640284143.8280497</v>
       </c>
     </row>
     <row r="114" spans="33:34" ht="20" x14ac:dyDescent="0.25">
@@ -14280,7 +14259,7 @@
       </c>
       <c r="AH115" s="53">
         <f>AH113/AH114</f>
-        <v>50.411857397123441</v>
+        <v>51.769575076809403</v>
       </c>
     </row>
     <row r="116" spans="33:34" ht="20" x14ac:dyDescent="0.25">
@@ -14289,7 +14268,7 @@
       </c>
       <c r="AH116" s="54" cm="1">
         <f t="array" ref="AH116">_FV(A1,"Price")</f>
-        <v>59.47</v>
+        <v>61</v>
       </c>
     </row>
     <row r="117" spans="33:34" ht="20" x14ac:dyDescent="0.25">
@@ -14298,7 +14277,7 @@
       </c>
       <c r="AH117" s="56">
         <f>AH115/AH116-1</f>
-        <v>-0.15231448802550118</v>
+        <v>-0.15131844136378025</v>
       </c>
     </row>
     <row r="118" spans="33:34" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Hardware/Rambus.xlsx
+++ b/Technology/Hardware/Rambus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6185445-FD13-B049-A87D-7490AD386596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63F726EE-3A3E-2C44-A6BB-72C01B85AE6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2469,9 +2469,11 @@
     <v>Powered by Refinitiv</v>
     <v>68.540000000000006</v>
     <v>20</v>
-    <v>1.2709999999999999</v>
-    <v>1.94</v>
-    <v>3.2848000000000002E-2</v>
+    <v>1.2679</v>
+    <v>1.07</v>
+    <v>1.6957E-2</v>
+    <v>0.17</v>
+    <v>2.6490000000000003E-3</v>
     <v>USD</v>
     <v>Rambus Inc. is a provider of chips and intellectual property (IP) that enable performance improvements for data centers and other markets. The Company's memory subsystems provide chips and IP, which provide security in data-intensive systems. It offers a balanced and diverse portfolio of solutions across chips, silicon IP and patent licensing. Its Rambus Double Data Rate (DDR) memory interface chips for server memory modules enable increased bandwidth and expanded capacity in enterprise and cloud servers. Its portfolio includes DDR5 and DDR4 memory interface chipsets. Its DDR5 chipset solution includes the Registering Clock Driver (RCD), Serial Presence Detect Hubs (SPD Hub) and Temperature Sensors (TS). Rambus Silicon IP includes interface and security IP solutions that move and protect data in advanced data center, government and automotive applications. It sells memory interface chips directly and indirectly to memory module manufacturers and original equipment manufacturers (OEMs).</v>
     <v>765</v>
@@ -2479,24 +2481,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>4453 North First Street, Suite 100, SAN JOSE, CA, 95134 US</v>
-    <v>61.08</v>
+    <v>65.239999999999995</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45099.994530728909</v>
+    <v>45107.993367488278</v>
     <v>0</v>
-    <v>58.2</v>
-    <v>6639557200</v>
+    <v>63.5184</v>
+    <v>6984595000</v>
     <v>RAMBUS INC.</v>
     <v>RAMBUS INC.</v>
-    <v>58.91</v>
-    <v>122.771</v>
-    <v>59.06</v>
-    <v>61</v>
+    <v>64.099999999999994</v>
+    <v>126.9975</v>
+    <v>63.1</v>
+    <v>64.17</v>
+    <v>64.34</v>
     <v>108845200</v>
     <v>RMBS</v>
     <v>RAMBUS INC. (XNAS:RMBS)</v>
-    <v>19</v>
-    <v>1812238</v>
+    <v>1888127</v>
+    <v>1800261</v>
     <v>1997</v>
   </rv>
   <rv s="2">
@@ -2528,6 +2531,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2548,6 +2553,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2564,7 +2570,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2575,13 +2581,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2647,13 +2656,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2698,6 +2713,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2705,6 +2723,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3069,7 +3090,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="AC96" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AE120" sqref="AE120"/>
+      <selection pane="bottomRight" activeCell="AE115" sqref="AE115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4927,15 +4948,15 @@
       </c>
       <c r="AM16" s="23">
         <f>AN101/AF3</f>
-        <v>14.599075183654982</v>
+        <v>15.357745171979341</v>
       </c>
       <c r="AN16" s="23">
         <f>AN101/AF28</f>
-        <v>-463.98023759608662</v>
+        <v>-488.091893780573</v>
       </c>
       <c r="AO16" s="24">
         <f>AN101/AF106</f>
-        <v>28.818523212611549</v>
+        <v>30.316135108857946</v>
       </c>
     </row>
     <row r="17" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -12911,7 +12932,7 @@
       </c>
       <c r="AN95" s="34" cm="1">
         <f t="array" ref="AN95">_FV(A1,"Beta")</f>
-        <v>1.2709999999999999</v>
+        <v>1.2679</v>
       </c>
     </row>
     <row r="96" spans="1:40" ht="20" x14ac:dyDescent="0.25">
@@ -13120,7 +13141,7 @@
       </c>
       <c r="AN97" s="31">
         <f>(AN94)+((AN95)*(AN96-AN94))</f>
-        <v>9.5666550000000003E-2</v>
+        <v>9.5533095000000012E-2</v>
       </c>
     </row>
     <row r="98" spans="1:40" ht="19" x14ac:dyDescent="0.25">
@@ -13432,7 +13453,7 @@
       </c>
       <c r="AN100" s="29">
         <f>AN99/AN103</f>
-        <v>6.6548093635969948E-3</v>
+        <v>6.3281432723163045E-3</v>
       </c>
     </row>
     <row r="101" spans="1:40" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -13537,7 +13558,7 @@
       </c>
       <c r="AN101" s="35" cm="1">
         <f t="array" ref="AN101">_FV(A1,"Market cap",TRUE)</f>
-        <v>6639557200</v>
+        <v>6984595000</v>
       </c>
     </row>
     <row r="102" spans="1:40" ht="20" x14ac:dyDescent="0.25">
@@ -13642,7 +13663,7 @@
       </c>
       <c r="AN102" s="29">
         <f>AN101/AN103</f>
-        <v>0.99334519063640303</v>
+        <v>0.99367185672768366</v>
       </c>
     </row>
     <row r="103" spans="1:40" ht="20" x14ac:dyDescent="0.25">
@@ -13747,7 +13768,7 @@
       </c>
       <c r="AN103" s="36">
         <f>AN99+AN101</f>
-        <v>6684038200</v>
+        <v>7029076000</v>
       </c>
     </row>
     <row r="104" spans="1:40" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -13988,7 +14009,7 @@
       </c>
       <c r="AN105" s="39">
         <f>(AN100*AN92)+(AN102*AN97)</f>
-        <v>9.5542634067484172E-2</v>
+        <v>9.5416106278485346E-2</v>
       </c>
     </row>
     <row r="106" spans="1:40" ht="19" x14ac:dyDescent="0.25">
@@ -14158,7 +14179,7 @@
       <c r="AJ107" s="41"/>
       <c r="AK107" s="44">
         <f>AK106*(1+AN107)/(AN108-AN107)</f>
-        <v>6428742732.4803228</v>
+        <v>6440294274.4069109</v>
       </c>
       <c r="AL107" s="45" t="s">
         <v>139</v>
@@ -14189,7 +14210,7 @@
       </c>
       <c r="AK108" s="44">
         <f>AK107+AK106</f>
-        <v>6871182192.0816479</v>
+        <v>6882733734.0082359</v>
       </c>
       <c r="AL108" s="45" t="s">
         <v>134</v>
@@ -14199,7 +14220,7 @@
       </c>
       <c r="AN108" s="49">
         <f>AN105</f>
-        <v>9.5542634067484172E-2</v>
+        <v>9.5416106278485346E-2</v>
       </c>
     </row>
     <row r="109" spans="1:40" ht="19" x14ac:dyDescent="0.25">
@@ -14214,7 +14235,7 @@
       </c>
       <c r="AH110" s="35">
         <f>NPV(AN108,AG108,AH108,AI108,AJ108,AK108)</f>
-        <v>5371539143.8280497</v>
+        <v>5381677857.6912889</v>
       </c>
     </row>
     <row r="111" spans="1:40" ht="20" x14ac:dyDescent="0.25">
@@ -14241,7 +14262,7 @@
       </c>
       <c r="AH113" s="35">
         <f>AH110+AH111-AH112</f>
-        <v>5640284143.8280497</v>
+        <v>5650422857.6912889</v>
       </c>
     </row>
     <row r="114" spans="33:34" ht="20" x14ac:dyDescent="0.25">
@@ -14259,7 +14280,7 @@
       </c>
       <c r="AH115" s="53">
         <f>AH113/AH114</f>
-        <v>51.769575076809403</v>
+        <v>51.862633670160527</v>
       </c>
     </row>
     <row r="116" spans="33:34" ht="20" x14ac:dyDescent="0.25">
@@ -14268,7 +14289,7 @@
       </c>
       <c r="AH116" s="54" cm="1">
         <f t="array" ref="AH116">_FV(A1,"Price")</f>
-        <v>61</v>
+        <v>64.17</v>
       </c>
     </row>
     <row r="117" spans="33:34" ht="20" x14ac:dyDescent="0.25">
@@ -14277,7 +14298,7 @@
       </c>
       <c r="AH117" s="56">
         <f>AH115/AH116-1</f>
-        <v>-0.15131844136378025</v>
+        <v>-0.19179314835342798</v>
       </c>
     </row>
     <row r="118" spans="33:34" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Hardware/Rambus.xlsx
+++ b/Technology/Hardware/Rambus.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63F726EE-3A3E-2C44-A6BB-72C01B85AE6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA86B14-94FC-7449-B15B-BADD8A1CB9AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -70,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="167">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -342,9 +345,6 @@
     <t>Cash at the End of Period</t>
   </si>
   <si>
-    <t>Free Cash Flow</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -483,9 +483,6 @@
     <t>WACC</t>
   </si>
   <si>
-    <t>Proj. Free Cash Flow</t>
-  </si>
-  <si>
     <t>FCF Growth Rate</t>
   </si>
   <si>
@@ -549,18 +546,47 @@
     <t>CAPEX as % of Revenue</t>
   </si>
   <si>
-    <t>FCF Growth YoY</t>
+    <t>Forward P/S</t>
+  </si>
+  <si>
+    <t>Forward P/E</t>
+  </si>
+  <si>
+    <t>Forward P/FCF</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>FCF Yield</t>
+  </si>
+  <si>
+    <t>Unlevered FCF</t>
+  </si>
+  <si>
+    <t>Levered FCF Growth YoY</t>
+  </si>
+  <si>
+    <t>Levered FCF</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Proj</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Forecast</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="169" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -729,7 +755,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -841,56 +867,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -898,7 +880,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -940,99 +922,99 @@
     <xf numFmtId="9" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="11" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="11" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="12" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="12" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="11" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="15" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="169" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="12" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="12" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="15" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="11" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1085,12 +1067,20 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2400"/>
-              <a:t>RMBS</a:t>
+              <a:t>Rambus</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.44290066225165564"/>
+          <c:y val="2.8891299783178757E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1124,10 +1114,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="6.3953819611098861E-2"/>
-          <c:y val="0.10935370152761457"/>
-          <c:w val="0.87673810790125695"/>
-          <c:h val="0.73774327562756181"/>
+          <c:x val="8.7397298847577826E-2"/>
+          <c:y val="0.15176599776103802"/>
+          <c:w val="0.83843051572195859"/>
+          <c:h val="0.62036763837738262"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1181,6 +1171,108 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$AF$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Sheet 1'!$B$3:$AF$3</c:f>
@@ -1285,7 +1377,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5C8C-0B4F-A90B-B052A2EF0B05}"/>
+              <c16:uniqueId val="{00000000-6511-7C4E-86DB-DF9E6FCBB056}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1294,11 +1386,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$19</c:f>
+              <c:f>'Sheet 1'!$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>EBITDA</c:v>
+                  <c:v>Net Income</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1336,111 +1428,213 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$AF$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$19:$AF$19</c:f>
+              <c:f>'Sheet 1'!$B$28:$AF$28</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>-5600000</c:v>
+                  <c:v>-6600000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-6000000</c:v>
+                  <c:v>-6300000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-4800000</c:v>
+                  <c:v>-6600000</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>-7000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>-4400000</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>-2900000</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>5400000</c:v>
+                  <c:v>2000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14100000</c:v>
+                  <c:v>6800000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16900000</c:v>
+                  <c:v>8700000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-134749000</c:v>
+                  <c:v>-106127000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>55000000</c:v>
+                  <c:v>31271000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43136000</c:v>
+                  <c:v>24704000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>39790000</c:v>
+                  <c:v>23221000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>56032000</c:v>
+                  <c:v>33559000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>71167000</c:v>
+                  <c:v>33677000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-6048000</c:v>
+                  <c:v>-13816000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-31868000</c:v>
+                  <c:v>-27664000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-38964000</c:v>
+                  <c:v>-195923000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-58132000</c:v>
+                  <c:v>-92186000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>242910000</c:v>
+                  <c:v>150917000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>30549000</c:v>
+                  <c:v>-43053000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-46840000</c:v>
+                  <c:v>-134336000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>65228000</c:v>
+                  <c:v>-33748000</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>115313000</c:v>
+                  <c:v>26201000</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>110097000</c:v>
+                  <c:v>211388000</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>85485000</c:v>
+                  <c:v>6820000</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>109946000</c:v>
+                  <c:v>-22862000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-14260000</c:v>
+                  <c:v>-157957000</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-36599000</c:v>
+                  <c:v>-90419000</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>18073000</c:v>
+                  <c:v>-43609000</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>78269000</c:v>
+                  <c:v>18334000</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-4277000</c:v>
+                  <c:v>-14310000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5C8C-0B4F-A90B-B052A2EF0B05}"/>
+              <c16:uniqueId val="{00000001-6511-7C4E-86DB-DF9E6FCBB056}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1449,11 +1643,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$106</c:f>
+              <c:f>'Sheet 1'!$A$107</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Free Cash Flow</c:v>
+                  <c:v>Levered FCF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1491,9 +1685,111 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$AF$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$106:$AF$106</c:f>
+              <c:f>'Sheet 1'!$B$107:$AF$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="31"/>
@@ -1595,7 +1891,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-5C8C-0B4F-A90B-B052A2EF0B05}"/>
+              <c16:uniqueId val="{00000002-6511-7C4E-86DB-DF9E6FCBB056}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1609,11 +1905,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="314232703"/>
-        <c:axId val="314382927"/>
+        <c:axId val="664896848"/>
+        <c:axId val="664898576"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="314232703"/>
+        <c:axId val="664896848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1641,7 +1937,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -1653,7 +1949,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="314382927"/>
+        <c:crossAx val="664898576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1661,7 +1957,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="314382927"/>
+        <c:axId val="664898576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1710,7 +2006,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="314232703"/>
+        <c:crossAx val="664896848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1728,10 +2024,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.34633641634993317"/>
-          <c:y val="0.91892243493065129"/>
-          <c:w val="0.3020552348584104"/>
-          <c:h val="4.8175097384272322E-2"/>
+          <c:x val="0.34285008082598945"/>
+          <c:y val="0.89166194813351973"/>
+          <c:w val="0.31429983834802105"/>
+          <c:h val="5.9222842235076449E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2311,22 +2607,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>15874</xdr:colOff>
+      <xdr:colOff>15875</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:rowOff>17462</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>31749</xdr:colOff>
-      <xdr:row>132</xdr:row>
-      <xdr:rowOff>15875</xdr:rowOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>1587500</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>31749</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{447BC5C9-09FE-6977-4A6A-3DB9A8E555AD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{549554E0-3CA5-DBA3-1186-C5AA98FD551E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2345,6 +2641,60 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Treasuries"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financial Services"/>
+      <sheetName val="Healthcare"/>
+      <sheetName val="Industrials"/>
+      <sheetName val="Real Estate"/>
+      <sheetName val="Fashion + Beauty"/>
+      <sheetName val="My Stocks"/>
+      <sheetName val="Profitable Software"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Value"/>
+      <sheetName val="Aggressive Growth"/>
+      <sheetName val="Other"/>
+      <sheetName val="Short List"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="C8">
+            <v>3.9120000000000002E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3087,10 +3437,10 @@
   <dimension ref="A1:AO118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AC96" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AE85" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AE115" sqref="AE115"/>
+      <selection pane="bottomRight" activeCell="AJ95" sqref="AJ95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3218,106 +3568,106 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AH2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AJ2" s="9"/>
       <c r="AK2" s="9"/>
@@ -3423,52 +3773,52 @@
         <v>596800000</v>
       </c>
       <c r="AH3" s="15">
-        <v>680000000</v>
+        <v>705000000</v>
       </c>
       <c r="AI3" s="15">
-        <v>772000000</v>
+        <v>846000000</v>
       </c>
       <c r="AJ3" s="15">
-        <v>829900000</v>
+        <v>1026000000</v>
       </c>
       <c r="AK3" s="15">
-        <v>859000000</v>
+        <v>1154000000</v>
       </c>
       <c r="AL3" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="AM3" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="AM3" s="17" t="s">
+      <c r="AN3" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="AN3" s="17" t="s">
+      <c r="AO3" s="17" t="s">
         <v>96</v>
-      </c>
-      <c r="AO3" s="17" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:41" ht="19" x14ac:dyDescent="0.25">
-      <c r="A4" s="58" t="s">
-        <v>151</v>
+      <c r="A4" s="28" t="s">
+        <v>149</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="37">
+      <c r="C4" s="24">
         <f>(C3/B3)-1</f>
         <v>0.78947368421052633</v>
       </c>
-      <c r="D4" s="37">
+      <c r="D4" s="24">
         <f>(D3/C3)-1</f>
         <v>0.47058823529411775</v>
       </c>
-      <c r="E4" s="37">
+      <c r="E4" s="24">
         <f>(E3/D3)-1</f>
         <v>0.48</v>
       </c>
-      <c r="F4" s="37">
+      <c r="F4" s="24">
         <f t="shared" ref="F4:AK4" si="0">(F3/E3)-1</f>
         <v>0.52702702702702697</v>
       </c>
-      <c r="G4" s="37">
+      <c r="G4" s="24">
         <f t="shared" si="0"/>
         <v>1.3008849557522124</v>
       </c>
@@ -3578,19 +3928,19 @@
       </c>
       <c r="AH4" s="18">
         <f t="shared" si="0"/>
-        <v>0.13941018766756041</v>
+        <v>0.18130026809651478</v>
       </c>
       <c r="AI4" s="18">
         <f t="shared" si="0"/>
-        <v>0.13529411764705879</v>
+        <v>0.19999999999999996</v>
       </c>
       <c r="AJ4" s="18">
         <f t="shared" si="0"/>
-        <v>7.4999999999999956E-2</v>
+        <v>0.2127659574468086</v>
       </c>
       <c r="AK4" s="18">
         <f t="shared" si="0"/>
-        <v>3.5064465598264816E-2</v>
+        <v>0.12475633528265107</v>
       </c>
       <c r="AL4" s="19">
         <f>(AF4+AE4+AD4)/3</f>
@@ -3605,7 +3955,7 @@
         <v>-1.239545267153749</v>
       </c>
       <c r="AO4" s="19">
-        <f>(AF105+AE105+AD105)/3</f>
+        <f>(AF106+AE106+AD106)/3</f>
         <v>0.23654699775325874</v>
       </c>
     </row>
@@ -3805,16 +4155,16 @@
         <v>347214000</v>
       </c>
       <c r="AL6" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM6" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="AM6" s="17" t="s">
+      <c r="AN6" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="AN6" s="17" t="s">
+      <c r="AO6" s="17" t="s">
         <v>100</v>
-      </c>
-      <c r="AO6" s="17" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:41" ht="19" x14ac:dyDescent="0.25">
@@ -3927,7 +4277,7 @@
         <v>-3.15E-2</v>
       </c>
       <c r="AO7" s="20">
-        <f>AF106/AF3</f>
+        <f>AF107/AF3</f>
         <v>0.50658651298502833</v>
       </c>
     </row>
@@ -4030,144 +4380,144 @@
       </c>
     </row>
     <row r="9" spans="1:41" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="58" t="s">
-        <v>152</v>
-      </c>
-      <c r="B9" s="37">
+      <c r="A9" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="B9" s="24">
         <f>B8/B3</f>
         <v>1.8421052631578947</v>
       </c>
-      <c r="C9" s="37">
+      <c r="C9" s="24">
         <f t="shared" ref="C9:AF9" si="1">C8/C3</f>
         <v>1.2647058823529411</v>
       </c>
-      <c r="D9" s="37">
+      <c r="D9" s="24">
         <f t="shared" si="1"/>
         <v>0.62</v>
       </c>
-      <c r="E9" s="37">
+      <c r="E9" s="24">
         <f t="shared" si="1"/>
         <v>0.41891891891891891</v>
       </c>
-      <c r="F9" s="37">
+      <c r="F9" s="24">
         <f t="shared" si="1"/>
         <v>0.46017699115044247</v>
       </c>
-      <c r="G9" s="37">
+      <c r="G9" s="24">
         <f t="shared" si="1"/>
         <v>0.37692307692307692</v>
       </c>
-      <c r="H9" s="37">
+      <c r="H9" s="24">
         <f t="shared" si="1"/>
         <v>0.25329815303430081</v>
       </c>
-      <c r="I9" s="37">
+      <c r="I9" s="24">
         <f t="shared" si="1"/>
         <v>0.18663594470046083</v>
       </c>
-      <c r="J9" s="37">
+      <c r="J9" s="24">
         <f t="shared" si="1"/>
         <v>0.15904910732806904</v>
       </c>
-      <c r="K9" s="37">
+      <c r="K9" s="24">
         <f t="shared" si="1"/>
         <v>0.15537726186411743</v>
       </c>
-      <c r="L9" s="37">
+      <c r="L9" s="24">
         <f t="shared" si="1"/>
         <v>0.23099466680474293</v>
       </c>
-      <c r="M9" s="37">
+      <c r="M9" s="24">
         <f t="shared" si="1"/>
         <v>0.25701547338054026</v>
       </c>
-      <c r="N9" s="37">
+      <c r="N9" s="24">
         <f t="shared" si="1"/>
         <v>0.22520949238648758</v>
       </c>
-      <c r="O9" s="37">
+      <c r="O9" s="24">
         <f t="shared" si="1"/>
         <v>0.26063944833903741</v>
       </c>
-      <c r="P9" s="37">
+      <c r="P9" s="24">
         <f t="shared" si="1"/>
         <v>0.35314144703159878</v>
       </c>
-      <c r="Q9" s="37">
+      <c r="Q9" s="24">
         <f t="shared" si="1"/>
         <v>0.46058130487940424</v>
       </c>
-      <c r="R9" s="37">
+      <c r="R9" s="24">
         <f t="shared" si="1"/>
         <v>0.53491375075441772</v>
       </c>
-      <c r="S9" s="37">
+      <c r="S9" s="24">
         <f t="shared" si="1"/>
         <v>0.59511357703505097</v>
       </c>
-      <c r="T9" s="37">
+      <c r="T9" s="24">
         <f t="shared" si="1"/>
         <v>0.28666934660935711</v>
       </c>
-      <c r="U9" s="37">
+      <c r="U9" s="24">
         <f t="shared" si="1"/>
         <v>0.3703895787913421</v>
       </c>
-      <c r="V9" s="37">
+      <c r="V9" s="24">
         <f t="shared" si="1"/>
         <v>0.60030933429038968</v>
       </c>
-      <c r="W9" s="37">
+      <c r="W9" s="24">
         <f t="shared" si="1"/>
         <v>0.43455088563209709</v>
       </c>
-      <c r="X9" s="37">
+      <c r="X9" s="24">
         <f t="shared" si="1"/>
         <v>0.37100668334693382</v>
       </c>
-      <c r="Y9" s="37">
+      <c r="Y9" s="24">
         <f t="shared" si="1"/>
         <v>0.37501940744840995</v>
       </c>
-      <c r="Z9" s="37">
+      <c r="Z9" s="24">
         <f t="shared" si="1"/>
         <v>0.38575507208917487</v>
       </c>
-      <c r="AA9" s="37">
+      <c r="AA9" s="24">
         <f t="shared" si="1"/>
         <v>0.37938569713250708</v>
       </c>
-      <c r="AB9" s="37">
+      <c r="AB9" s="24">
         <f t="shared" si="1"/>
         <v>0.68485430426338989</v>
       </c>
-      <c r="AC9" s="37">
+      <c r="AC9" s="24">
         <f t="shared" si="1"/>
         <v>0.69998259138407426</v>
       </c>
-      <c r="AD9" s="37">
+      <c r="AD9" s="24">
         <f t="shared" si="1"/>
         <v>0.57606067222251978</v>
       </c>
-      <c r="AE9" s="37">
+      <c r="AE9" s="24">
         <f t="shared" si="1"/>
         <v>0.41326940884058677</v>
       </c>
-      <c r="AF9" s="37">
+      <c r="AF9" s="24">
         <f t="shared" si="1"/>
         <v>0.34910167922549379</v>
       </c>
       <c r="AL9" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM9" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="AM9" s="17" t="s">
+      <c r="AN9" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="AN9" s="17" t="s">
+      <c r="AO9" s="17" t="s">
         <v>104</v>
-      </c>
-      <c r="AO9" s="17" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:41" ht="19" x14ac:dyDescent="0.25">
@@ -4187,46 +4537,46 @@
         <v>5100000</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T10" s="1">
         <v>119475000</v>
@@ -4235,37 +4585,37 @@
         <v>164131000</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AL10" s="19">
         <f>AF9</f>
@@ -4281,7 +4631,7 @@
       </c>
       <c r="AO10" s="20">
         <f>AF89</f>
-        <v>2.1988025321409961E-6</v>
+        <v>8.9174635493510235E-2</v>
       </c>
     </row>
     <row r="11" spans="1:41" ht="19" x14ac:dyDescent="0.25">
@@ -4289,97 +4639,97 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:41" ht="20" x14ac:dyDescent="0.25">
@@ -4480,143 +4830,143 @@
         <v>106718000</v>
       </c>
       <c r="AL12" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="AM12" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="AM12" s="17" t="s">
+      <c r="AN12" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="AN12" s="17" t="s">
+      <c r="AO12" s="17" t="s">
         <v>108</v>
-      </c>
-      <c r="AO12" s="17" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:41" ht="19" x14ac:dyDescent="0.25">
-      <c r="A13" s="58" t="s">
-        <v>153</v>
-      </c>
-      <c r="B13" s="37">
+      <c r="A13" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="B13" s="24">
         <f>B12/B3</f>
         <v>1.631578947368421</v>
       </c>
-      <c r="C13" s="37">
+      <c r="C13" s="24">
         <f t="shared" ref="C13:AF13" si="2">C12/C3</f>
         <v>0.91176470588235292</v>
       </c>
-      <c r="D13" s="37">
+      <c r="D13" s="24">
         <f t="shared" si="2"/>
         <v>0.86</v>
       </c>
-      <c r="E13" s="37">
+      <c r="E13" s="24">
         <f t="shared" si="2"/>
         <v>0.68918918918918914</v>
       </c>
-      <c r="F13" s="37">
+      <c r="F13" s="24">
         <f t="shared" si="2"/>
         <v>0.51327433628318586</v>
       </c>
-      <c r="G13" s="37">
+      <c r="G13" s="24">
         <f t="shared" si="2"/>
         <v>0.33846153846153848</v>
       </c>
-      <c r="H13" s="37">
+      <c r="H13" s="24">
         <f t="shared" si="2"/>
         <v>0.29815303430079154</v>
       </c>
-      <c r="I13" s="37">
+      <c r="I13" s="24">
         <f t="shared" si="2"/>
         <v>0.31105990783410137</v>
       </c>
-      <c r="J13" s="37">
+      <c r="J13" s="24">
         <f t="shared" si="2"/>
         <v>0.29234832874666372</v>
       </c>
-      <c r="K13" s="37">
+      <c r="K13" s="24">
         <f t="shared" si="2"/>
         <v>0.41292249914646639</v>
       </c>
-      <c r="L13" s="37">
+      <c r="L13" s="24">
         <f t="shared" si="2"/>
         <v>0.36485268989799619</v>
       </c>
-      <c r="M13" s="37">
+      <c r="M13" s="24">
         <f t="shared" si="2"/>
         <v>0.37716470817153541</v>
       </c>
-      <c r="N13" s="37">
+      <c r="N13" s="24">
         <f t="shared" si="2"/>
         <v>0.36227342380275274</v>
       </c>
-      <c r="O13" s="37">
+      <c r="O13" s="24">
         <f t="shared" si="2"/>
         <v>0.47518416264837976</v>
       </c>
-      <c r="P13" s="37">
+      <c r="P13" s="24">
         <f t="shared" si="2"/>
         <v>0.53532080031127771</v>
       </c>
-      <c r="Q13" s="37">
+      <c r="Q13" s="24">
         <f t="shared" si="2"/>
         <v>0.67020673557852617</v>
       </c>
-      <c r="R13" s="37">
+      <c r="R13" s="24">
         <f t="shared" si="2"/>
         <v>0.89364464468679383</v>
       </c>
-      <c r="S13" s="37">
+      <c r="S13" s="24">
         <f t="shared" si="2"/>
         <v>1.1344341500968966</v>
       </c>
-      <c r="T13" s="37">
+      <c r="T13" s="24">
         <f t="shared" si="2"/>
         <v>0.36944556108723214</v>
       </c>
-      <c r="U13" s="37">
+      <c r="U13" s="24">
         <f t="shared" si="2"/>
         <v>0.52544955708582641</v>
       </c>
-      <c r="V13" s="37">
+      <c r="V13" s="24">
         <f t="shared" si="2"/>
         <v>0.48106609243284582</v>
       </c>
-      <c r="W13" s="37">
+      <c r="W13" s="24">
         <f t="shared" si="2"/>
         <v>0.28157539014589267</v>
       </c>
-      <c r="X13" s="37">
+      <c r="X13" s="24">
         <f t="shared" si="2"/>
         <v>0.25212605965780727</v>
       </c>
-      <c r="Y13" s="37">
+      <c r="Y13" s="24">
         <f t="shared" si="2"/>
         <v>0.23813445480258405</v>
       </c>
-      <c r="Z13" s="37">
+      <c r="Z13" s="24">
         <f t="shared" si="2"/>
         <v>0.28266740345279368</v>
       </c>
-      <c r="AA13" s="37">
+      <c r="AA13" s="24">
         <f t="shared" si="2"/>
         <v>0.28222113682153976</v>
       </c>
-      <c r="AB13" s="37">
+      <c r="AB13" s="24">
         <f t="shared" si="2"/>
         <v>0.44944009757743264</v>
       </c>
-      <c r="AC13" s="37">
+      <c r="AC13" s="24">
         <f t="shared" si="2"/>
         <v>0.46474755275033813</v>
       </c>
-      <c r="AD13" s="37">
+      <c r="AD13" s="24">
         <f t="shared" si="2"/>
         <v>0.3527087873382575</v>
       </c>
-      <c r="AE13" s="37">
+      <c r="AE13" s="24">
         <f t="shared" si="2"/>
         <v>0.27735574345728348</v>
       </c>
-      <c r="AF13" s="37">
+      <c r="AF13" s="24">
         <f t="shared" si="2"/>
         <v>0.2346518086250228</v>
       </c>
@@ -4642,16 +4992,16 @@
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C14" s="1">
         <v>-100000</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F14" s="1">
         <v>1200000</v>
@@ -4669,19 +5019,19 @@
         <v>4045000</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P14" s="1">
         <v>31436000</v>
@@ -4690,10 +5040,10 @@
         <v>19457000</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T14" s="1">
         <v>4190000</v>
@@ -4702,28 +5052,28 @@
         <v>16187000</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD14" s="1">
         <v>1061000</v>
@@ -4833,16 +5183,16 @@
         <v>267161000</v>
       </c>
       <c r="AL15" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM15" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="AM15" s="17" t="s">
+      <c r="AN15" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="AN15" s="17" t="s">
+      <c r="AO15" s="17" t="s">
         <v>112</v>
-      </c>
-      <c r="AO15" s="17" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:41" ht="19" x14ac:dyDescent="0.25">
@@ -4946,28 +5296,28 @@
         <f>(AF35+AE35+AD35+AC35+AB35)/5</f>
         <v>-9.5405885388334319E-4</v>
       </c>
-      <c r="AM16" s="23">
+      <c r="AM16" s="30">
         <f>AN101/AF3</f>
         <v>15.357745171979341</v>
       </c>
-      <c r="AN16" s="23">
+      <c r="AN16" s="30">
         <f>AN101/AF28</f>
         <v>-488.091893780573</v>
       </c>
-      <c r="AO16" s="24">
-        <f>AN101/AF106</f>
+      <c r="AO16" s="32">
+        <f>AN101/AF107</f>
         <v>30.316135108857946</v>
       </c>
     </row>
-    <row r="17" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:41" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D17" s="1">
         <v>-300000</v>
@@ -4976,40 +5326,40 @@
         <v>-300000</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R17" s="1">
         <v>17042000</v>
@@ -5057,15 +5407,15 @@
         <v>1874000</v>
       </c>
     </row>
-    <row r="18" spans="1:38" ht="20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:41" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D18" s="1">
         <v>1700000</v>
@@ -5155,10 +5505,19 @@
         <v>1674000</v>
       </c>
       <c r="AL18" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
+      </c>
+      <c r="AM18" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="AN18" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="AO18" s="17" t="s">
+        <v>159</v>
       </c>
     </row>
-    <row r="19" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:41" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
@@ -5255,138 +5614,185 @@
       <c r="AF19" s="10">
         <v>-4277000</v>
       </c>
-      <c r="AL19" s="25">
+      <c r="AG19" s="35">
+        <v>296000000</v>
+      </c>
+      <c r="AH19" s="35">
+        <v>353000000</v>
+      </c>
+      <c r="AI19" s="35">
+        <v>434000000</v>
+      </c>
+      <c r="AJ19" s="35">
+        <v>578000000</v>
+      </c>
+      <c r="AK19" s="35">
+        <v>679000000</v>
+      </c>
+      <c r="AL19" s="23">
         <f>AF40-AF56-AF61</f>
         <v>268745000</v>
       </c>
+      <c r="AM19" s="30">
+        <f>AN101/AG3</f>
+        <v>11.703409852546917</v>
+      </c>
+      <c r="AN19" s="31">
+        <f>AH116/AG31</f>
+        <v>35.65</v>
+      </c>
+      <c r="AO19" s="32">
+        <f>AN101/AG106</f>
+        <v>41.231375442739079</v>
+      </c>
     </row>
-    <row r="20" spans="1:38" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="58" t="s">
-        <v>154</v>
+    <row r="20" spans="1:41" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="28" t="s">
+        <v>152</v>
       </c>
       <c r="B20" s="1"/>
-      <c r="C20" s="37">
+      <c r="C20" s="24">
         <f>(C19/B19)-1</f>
         <v>7.1428571428571397E-2</v>
       </c>
-      <c r="D20" s="37">
+      <c r="D20" s="24">
         <f>(D19/C19)-1</f>
         <v>-0.19999999999999996</v>
       </c>
-      <c r="E20" s="37">
+      <c r="E20" s="24">
         <f>(E19/D19)-1</f>
         <v>-8.333333333333337E-2</v>
       </c>
-      <c r="F20" s="37">
-        <f t="shared" ref="F20:AF20" si="3">(F19/E19)-1</f>
+      <c r="F20" s="24">
+        <f t="shared" ref="F20:AK20" si="3">(F19/E19)-1</f>
         <v>-0.34090909090909094</v>
       </c>
-      <c r="G20" s="37">
+      <c r="G20" s="24">
         <f t="shared" si="3"/>
         <v>-2.8620689655172411</v>
       </c>
-      <c r="H20" s="37">
+      <c r="H20" s="24">
         <f t="shared" si="3"/>
         <v>1.6111111111111112</v>
       </c>
-      <c r="I20" s="37">
+      <c r="I20" s="24">
         <f t="shared" si="3"/>
         <v>0.19858156028368801</v>
       </c>
-      <c r="J20" s="37">
+      <c r="J20" s="24">
         <f t="shared" si="3"/>
         <v>-8.9733136094674553</v>
       </c>
-      <c r="K20" s="37">
+      <c r="K20" s="24">
         <f t="shared" si="3"/>
         <v>-1.4081662943695314</v>
       </c>
-      <c r="L20" s="37">
+      <c r="L20" s="24">
         <f t="shared" si="3"/>
         <v>-0.21570909090909096</v>
       </c>
-      <c r="M20" s="37">
+      <c r="M20" s="24">
         <f t="shared" si="3"/>
         <v>-7.7568620178041559E-2</v>
       </c>
-      <c r="N20" s="37">
+      <c r="N20" s="24">
         <f t="shared" si="3"/>
         <v>0.40819301331992963</v>
       </c>
-      <c r="O20" s="37">
+      <c r="O20" s="24">
         <f t="shared" si="3"/>
         <v>0.27011350656767563</v>
       </c>
-      <c r="P20" s="37">
+      <c r="P20" s="24">
         <f t="shared" si="3"/>
         <v>-1.0849832085095621</v>
       </c>
-      <c r="Q20" s="37">
+      <c r="Q20" s="24">
         <f t="shared" si="3"/>
         <v>4.269179894179894</v>
       </c>
-      <c r="R20" s="37">
+      <c r="R20" s="24">
         <f t="shared" si="3"/>
         <v>0.22266850759382462</v>
       </c>
-      <c r="S20" s="37">
+      <c r="S20" s="24">
         <f t="shared" si="3"/>
         <v>0.49194127912945285</v>
       </c>
-      <c r="T20" s="37">
+      <c r="T20" s="24">
         <f t="shared" si="3"/>
         <v>-5.1785935457235261</v>
       </c>
-      <c r="U20" s="37">
+      <c r="U20" s="24">
         <f t="shared" si="3"/>
         <v>-0.87423737186612327</v>
       </c>
-      <c r="V20" s="37">
+      <c r="V20" s="24">
         <f t="shared" si="3"/>
         <v>-2.5332744116010346</v>
       </c>
-      <c r="W20" s="37">
+      <c r="W20" s="24">
         <f t="shared" si="3"/>
         <v>-2.3925704526046117</v>
       </c>
-      <c r="X20" s="37">
+      <c r="X20" s="24">
         <f t="shared" si="3"/>
         <v>0.76784509719752259</v>
       </c>
-      <c r="Y20" s="37">
+      <c r="Y20" s="24">
         <f t="shared" si="3"/>
         <v>-4.5233408202024039E-2</v>
       </c>
-      <c r="Z20" s="37">
+      <c r="Z20" s="24">
         <f t="shared" si="3"/>
         <v>-0.22354832556745419</v>
       </c>
-      <c r="AA20" s="37">
+      <c r="AA20" s="24">
         <f t="shared" si="3"/>
         <v>0.28614376791249918</v>
       </c>
-      <c r="AB20" s="37">
+      <c r="AB20" s="24">
         <f t="shared" si="3"/>
         <v>-1.1297000345624215</v>
       </c>
-      <c r="AC20" s="37">
+      <c r="AC20" s="24">
         <f t="shared" si="3"/>
         <v>1.5665497896213183</v>
       </c>
-      <c r="AD20" s="37">
+      <c r="AD20" s="24">
         <f t="shared" si="3"/>
         <v>-1.4938113063198448</v>
       </c>
-      <c r="AE20" s="37">
+      <c r="AE20" s="24">
         <f t="shared" si="3"/>
         <v>3.3307143252365403</v>
       </c>
-      <c r="AF20" s="37">
+      <c r="AF20" s="24">
         <f t="shared" si="3"/>
         <v>-1.0546448785598386</v>
       </c>
+      <c r="AG20" s="18">
+        <f t="shared" si="3"/>
+        <v>-70.207388356324529</v>
+      </c>
+      <c r="AH20" s="18">
+        <f t="shared" si="3"/>
+        <v>0.19256756756756754</v>
+      </c>
+      <c r="AI20" s="18">
+        <f t="shared" si="3"/>
+        <v>0.22946175637393762</v>
+      </c>
+      <c r="AJ20" s="18">
+        <f t="shared" si="3"/>
+        <v>0.33179723502304137</v>
+      </c>
+      <c r="AK20" s="18">
+        <f t="shared" si="3"/>
+        <v>0.17474048442906565</v>
+      </c>
     </row>
-    <row r="21" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:41" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -5483,8 +5889,34 @@
       <c r="AF21" s="2">
         <v>-9.4000000000000004E-3</v>
       </c>
+      <c r="AG21" s="36">
+        <f>AG19/AG3</f>
+        <v>0.49597855227882037</v>
+      </c>
+      <c r="AH21" s="36">
+        <f t="shared" ref="AH21:AK21" si="4">AH19/AH3</f>
+        <v>0.50070921985815597</v>
+      </c>
+      <c r="AI21" s="36">
+        <f t="shared" si="4"/>
+        <v>0.51300236406619382</v>
+      </c>
+      <c r="AJ21" s="36">
+        <f t="shared" si="4"/>
+        <v>0.56335282651072127</v>
+      </c>
+      <c r="AK21" s="36">
+        <f t="shared" si="4"/>
+        <v>0.58838821490467941</v>
+      </c>
+      <c r="AN21" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO21" s="17" t="s">
+        <v>161</v>
+      </c>
     </row>
-    <row r="22" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:41" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
@@ -5581,8 +6013,16 @@
       <c r="AF22" s="10">
         <v>80053000</v>
       </c>
+      <c r="AN22" s="33">
+        <f>(-1*AF98)/AN101</f>
+        <v>0</v>
+      </c>
+      <c r="AO22" s="34">
+        <f>AF107/AN101</f>
+        <v>3.2985735035460179E-2</v>
+      </c>
     </row>
-    <row r="23" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:41" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
@@ -5680,7 +6120,7 @@
         <v>0.17599999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:41" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -5778,7 +6218,7 @@
         <v>-87878000</v>
       </c>
     </row>
-    <row r="25" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:41" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
@@ -5876,7 +6316,7 @@
         <v>-7825000</v>
       </c>
     </row>
-    <row r="26" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:41" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
@@ -5974,7 +6414,7 @@
         <v>-1.72E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:41" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
@@ -6072,7 +6512,7 @@
         <v>6485000</v>
       </c>
     </row>
-    <row r="28" spans="1:38" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:41" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
@@ -6169,134 +6609,169 @@
       <c r="AF28" s="11">
         <v>-14310000</v>
       </c>
+      <c r="AG28" s="37">
+        <v>196000000</v>
+      </c>
+      <c r="AH28" s="37">
+        <v>239000000</v>
+      </c>
+      <c r="AI28" s="37">
+        <v>281000000</v>
+      </c>
+      <c r="AJ28" s="37">
+        <v>360000000</v>
+      </c>
+      <c r="AK28" s="37">
+        <v>427000000</v>
+      </c>
     </row>
-    <row r="29" spans="1:38" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="58" t="s">
-        <v>155</v>
+    <row r="29" spans="1:41" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="28" t="s">
+        <v>153</v>
       </c>
       <c r="B29" s="1"/>
-      <c r="C29" s="37">
+      <c r="C29" s="24">
         <f>(C28/B28)-1</f>
         <v>-4.5454545454545414E-2</v>
       </c>
-      <c r="D29" s="37">
+      <c r="D29" s="24">
         <f>(D28/C28)-1</f>
         <v>4.7619047619047672E-2</v>
       </c>
-      <c r="E29" s="37">
+      <c r="E29" s="24">
         <f>(E28/D28)-1</f>
         <v>6.0606060606060552E-2</v>
       </c>
-      <c r="F29" s="37">
-        <f t="shared" ref="F29:AF29" si="4">(F28/E28)-1</f>
+      <c r="F29" s="24">
+        <f t="shared" ref="F29:AK29" si="5">(F28/E28)-1</f>
         <v>-0.37142857142857144</v>
       </c>
-      <c r="G29" s="37">
-        <f t="shared" si="4"/>
+      <c r="G29" s="24">
+        <f t="shared" si="5"/>
         <v>-1.4545454545454546</v>
       </c>
-      <c r="H29" s="37">
-        <f t="shared" si="4"/>
+      <c r="H29" s="24">
+        <f t="shared" si="5"/>
         <v>2.4</v>
       </c>
-      <c r="I29" s="37">
-        <f t="shared" si="4"/>
+      <c r="I29" s="24">
+        <f t="shared" si="5"/>
         <v>0.27941176470588225</v>
       </c>
-      <c r="J29" s="37">
-        <f t="shared" si="4"/>
+      <c r="J29" s="24">
+        <f t="shared" si="5"/>
         <v>-13.198505747126436</v>
       </c>
-      <c r="K29" s="37">
-        <f t="shared" si="4"/>
+      <c r="K29" s="24">
+        <f t="shared" si="5"/>
         <v>-1.294656402235058</v>
       </c>
-      <c r="L29" s="37">
-        <f t="shared" si="4"/>
+      <c r="L29" s="24">
+        <f t="shared" si="5"/>
         <v>-0.21000287806593965</v>
       </c>
-      <c r="M29" s="37">
-        <f t="shared" si="4"/>
+      <c r="M29" s="24">
+        <f t="shared" si="5"/>
         <v>-6.0030764248704682E-2</v>
       </c>
-      <c r="N29" s="37">
-        <f t="shared" si="4"/>
+      <c r="N29" s="24">
+        <f t="shared" si="5"/>
         <v>0.44520046509624911</v>
       </c>
-      <c r="O29" s="37">
-        <f t="shared" si="4"/>
+      <c r="O29" s="24">
+        <f t="shared" si="5"/>
         <v>3.5161953574303073E-3</v>
       </c>
-      <c r="P29" s="37">
-        <f t="shared" si="4"/>
+      <c r="P29" s="24">
+        <f t="shared" si="5"/>
         <v>-1.4102503192089557</v>
       </c>
-      <c r="Q29" s="37">
-        <f t="shared" si="4"/>
+      <c r="Q29" s="24">
+        <f t="shared" si="5"/>
         <v>1.0023161551823971</v>
       </c>
-      <c r="R29" s="37">
-        <f t="shared" si="4"/>
+      <c r="R29" s="24">
+        <f t="shared" si="5"/>
         <v>6.0822368421052628</v>
       </c>
-      <c r="S29" s="37">
-        <f t="shared" si="4"/>
+      <c r="S29" s="24">
+        <f t="shared" si="5"/>
         <v>-0.5294784175415852</v>
       </c>
-      <c r="T29" s="37">
-        <f t="shared" si="4"/>
+      <c r="T29" s="24">
+        <f t="shared" si="5"/>
         <v>-2.6370924001475275</v>
       </c>
-      <c r="U29" s="37">
-        <f t="shared" si="4"/>
+      <c r="U29" s="24">
+        <f t="shared" si="5"/>
         <v>-1.285276012642711</v>
       </c>
-      <c r="V29" s="37">
-        <f t="shared" si="4"/>
+      <c r="V29" s="24">
+        <f t="shared" si="5"/>
         <v>2.1202471372494367</v>
       </c>
-      <c r="W29" s="37">
-        <f t="shared" si="4"/>
+      <c r="W29" s="24">
+        <f t="shared" si="5"/>
         <v>-0.74877918056217241</v>
       </c>
-      <c r="X29" s="37">
-        <f t="shared" si="4"/>
+      <c r="X29" s="24">
+        <f t="shared" si="5"/>
         <v>-1.7763719331515941</v>
       </c>
-      <c r="Y29" s="37">
-        <f t="shared" si="4"/>
+      <c r="Y29" s="24">
+        <f t="shared" si="5"/>
         <v>7.0679363383076979</v>
       </c>
-      <c r="Z29" s="37">
-        <f t="shared" si="4"/>
+      <c r="Z29" s="24">
+        <f t="shared" si="5"/>
         <v>-0.9677370522451606</v>
       </c>
-      <c r="AA29" s="37">
-        <f t="shared" si="4"/>
+      <c r="AA29" s="24">
+        <f t="shared" si="5"/>
         <v>-4.3521994134897355</v>
       </c>
-      <c r="AB29" s="37">
-        <f t="shared" si="4"/>
+      <c r="AB29" s="24">
+        <f t="shared" si="5"/>
         <v>5.9091505555069546</v>
       </c>
-      <c r="AC29" s="37">
-        <f t="shared" si="4"/>
+      <c r="AC29" s="24">
+        <f t="shared" si="5"/>
         <v>-0.42757206075071064</v>
       </c>
-      <c r="AD29" s="37">
-        <f t="shared" si="4"/>
+      <c r="AD29" s="24">
+        <f t="shared" si="5"/>
         <v>-0.51770092569039694</v>
       </c>
-      <c r="AE29" s="37">
-        <f t="shared" si="4"/>
+      <c r="AE29" s="24">
+        <f t="shared" si="5"/>
         <v>-1.4204178036643813</v>
       </c>
-      <c r="AF29" s="37">
-        <f t="shared" si="4"/>
+      <c r="AF29" s="24">
+        <f t="shared" si="5"/>
         <v>-1.7805170721064689</v>
       </c>
+      <c r="AG29" s="18">
+        <f t="shared" si="5"/>
+        <v>-14.696715583508036</v>
+      </c>
+      <c r="AH29" s="18">
+        <f t="shared" si="5"/>
+        <v>0.21938775510204089</v>
+      </c>
+      <c r="AI29" s="18">
+        <f t="shared" si="5"/>
+        <v>0.17573221757322166</v>
+      </c>
+      <c r="AJ29" s="18">
+        <f t="shared" si="5"/>
+        <v>0.28113879003558728</v>
+      </c>
+      <c r="AK29" s="18">
+        <f t="shared" si="5"/>
+        <v>0.18611111111111112</v>
+      </c>
     </row>
-    <row r="30" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:41" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
@@ -6393,8 +6868,28 @@
       <c r="AF30" s="2">
         <v>-3.15E-2</v>
       </c>
+      <c r="AG30" s="38">
+        <f>AG28/AG3</f>
+        <v>0.32841823056300268</v>
+      </c>
+      <c r="AH30" s="38">
+        <f t="shared" ref="AH30:AK30" si="6">AH28/AH3</f>
+        <v>0.33900709219858155</v>
+      </c>
+      <c r="AI30" s="38">
+        <f t="shared" si="6"/>
+        <v>0.3321513002364066</v>
+      </c>
+      <c r="AJ30" s="38">
+        <f t="shared" si="6"/>
+        <v>0.35087719298245612</v>
+      </c>
+      <c r="AK30" s="38">
+        <f t="shared" si="6"/>
+        <v>0.37001733102253032</v>
+      </c>
     </row>
-    <row r="31" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:41" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
@@ -6491,8 +6986,23 @@
       <c r="AF31" s="12">
         <v>-0.13</v>
       </c>
+      <c r="AG31" s="39">
+        <v>1.8</v>
+      </c>
+      <c r="AH31" s="39">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AI31" s="39">
+        <v>2.58</v>
+      </c>
+      <c r="AJ31" s="39">
+        <v>3.31</v>
+      </c>
+      <c r="AK31" s="39">
+        <v>3.92</v>
+      </c>
     </row>
-    <row r="32" spans="1:38" ht="19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:41" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
@@ -6787,128 +7297,128 @@
       </c>
     </row>
     <row r="35" spans="1:32" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="58" t="s">
-        <v>156</v>
+      <c r="A35" s="28" t="s">
+        <v>154</v>
       </c>
       <c r="B35" s="1"/>
-      <c r="C35" s="59">
+      <c r="C35" s="29">
         <f>(C34-B34)/B34</f>
         <v>0.49152542372881358</v>
       </c>
-      <c r="D35" s="59">
-        <f t="shared" ref="D35:AF35" si="5">(D34-C34)/C34</f>
+      <c r="D35" s="29">
+        <f t="shared" ref="D35:AF35" si="7">(D34-C34)/C34</f>
         <v>0.16477272727272727</v>
       </c>
-      <c r="E35" s="59">
-        <f t="shared" si="5"/>
+      <c r="E35" s="29">
+        <f t="shared" si="7"/>
         <v>0.10731707317073171</v>
       </c>
-      <c r="F35" s="59">
-        <f t="shared" si="5"/>
+      <c r="F35" s="29">
+        <f t="shared" si="7"/>
         <v>-3.0837004405286344E-2</v>
       </c>
-      <c r="G35" s="59">
-        <f t="shared" si="5"/>
+      <c r="G35" s="29">
+        <f t="shared" si="7"/>
         <v>3.0909090909090908</v>
       </c>
-      <c r="H35" s="59">
-        <f t="shared" si="5"/>
+      <c r="H35" s="29">
+        <f t="shared" si="7"/>
         <v>8.3377777777777773E-2</v>
       </c>
-      <c r="I35" s="59">
-        <f t="shared" si="5"/>
+      <c r="I35" s="29">
+        <f t="shared" si="7"/>
         <v>2.7732195602231703E-2</v>
       </c>
-      <c r="J35" s="59">
-        <f t="shared" si="5"/>
+      <c r="J35" s="29">
+        <f t="shared" si="7"/>
         <v>-3.7132763851189528E-2</v>
       </c>
-      <c r="K35" s="59">
-        <f t="shared" si="5"/>
+      <c r="K35" s="29">
+        <f t="shared" si="7"/>
         <v>9.8241213842279268E-2</v>
       </c>
-      <c r="L35" s="59">
-        <f t="shared" si="5"/>
+      <c r="L35" s="29">
+        <f t="shared" si="7"/>
         <v>-3.6483400335956817E-2</v>
       </c>
-      <c r="M35" s="59">
-        <f t="shared" si="5"/>
+      <c r="M35" s="29">
+        <f t="shared" si="7"/>
         <v>4.3525954946131241E-2</v>
       </c>
-      <c r="N35" s="59">
-        <f t="shared" si="5"/>
+      <c r="N35" s="29">
+        <f t="shared" si="7"/>
         <v>3.2906592581468691E-2</v>
       </c>
-      <c r="O35" s="59">
-        <f t="shared" si="5"/>
+      <c r="O35" s="29">
+        <f t="shared" si="7"/>
         <v>-5.5038618809631984E-2</v>
       </c>
-      <c r="P35" s="59">
-        <f t="shared" si="5"/>
+      <c r="P35" s="29">
+        <f t="shared" si="7"/>
         <v>-9.0871500966411209E-3</v>
       </c>
-      <c r="Q35" s="59">
-        <f t="shared" si="5"/>
+      <c r="Q35" s="29">
+        <f t="shared" si="7"/>
         <v>9.7818492353078171E-3</v>
       </c>
-      <c r="R35" s="59">
-        <f t="shared" si="5"/>
+      <c r="R35" s="29">
+        <f t="shared" si="7"/>
         <v>4.9780887214576769E-3</v>
       </c>
-      <c r="S35" s="59">
-        <f t="shared" si="5"/>
+      <c r="S35" s="29">
+        <f t="shared" si="7"/>
         <v>4.1788589898062618E-3</v>
       </c>
-      <c r="T35" s="59">
-        <f t="shared" si="5"/>
+      <c r="T35" s="29">
+        <f t="shared" si="7"/>
         <v>0.10354153374408395</v>
       </c>
-      <c r="U35" s="59">
-        <f t="shared" si="5"/>
+      <c r="U35" s="29">
+        <f t="shared" si="7"/>
         <v>-5.0421110765938353E-2</v>
       </c>
-      <c r="V35" s="59">
-        <f t="shared" si="5"/>
+      <c r="V35" s="29">
+        <f t="shared" si="7"/>
         <v>6.6157159604147541E-3</v>
       </c>
-      <c r="W35" s="59">
-        <f t="shared" si="5"/>
+      <c r="W35" s="29">
+        <f t="shared" si="7"/>
         <v>1.4859753180041348E-2</v>
       </c>
-      <c r="X35" s="59">
-        <f t="shared" si="5"/>
+      <c r="X35" s="29">
+        <f t="shared" si="7"/>
         <v>4.6337232575723877E-2</v>
       </c>
-      <c r="Y35" s="59">
-        <f t="shared" si="5"/>
+      <c r="Y35" s="29">
+        <f t="shared" si="7"/>
         <v>-1.1902332857240019E-3</v>
       </c>
-      <c r="Z35" s="59">
-        <f t="shared" si="5"/>
+      <c r="Z35" s="29">
+        <f t="shared" si="7"/>
         <v>-3.6975247693302918E-2</v>
       </c>
-      <c r="AA35" s="59">
-        <f t="shared" si="5"/>
+      <c r="AA35" s="29">
+        <f t="shared" si="7"/>
         <v>-2.600318189853279E-2</v>
       </c>
-      <c r="AB35" s="59">
-        <f t="shared" si="5"/>
+      <c r="AB35" s="29">
+        <f t="shared" si="7"/>
         <v>-1.5862356848581644E-2</v>
       </c>
-      <c r="AC35" s="59">
-        <f t="shared" si="5"/>
+      <c r="AC35" s="29">
+        <f t="shared" si="7"/>
         <v>2.3033656062701705E-2</v>
       </c>
-      <c r="AD35" s="59">
-        <f t="shared" si="5"/>
+      <c r="AD35" s="29">
+        <f t="shared" si="7"/>
         <v>2.0784511663121463E-2</v>
       </c>
-      <c r="AE35" s="59">
-        <f t="shared" si="5"/>
+      <c r="AE35" s="29">
+        <f t="shared" si="7"/>
         <v>1.422466314655553E-2</v>
       </c>
-      <c r="AF35" s="59">
-        <f t="shared" si="5"/>
+      <c r="AF35" s="29">
+        <f t="shared" si="7"/>
         <v>-4.695076829321377E-2</v>
       </c>
     </row>
@@ -6917,97 +7427,97 @@
         <v>28</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="X36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Z36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AA36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AB36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AC36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AE36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AF36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:32" ht="21" x14ac:dyDescent="0.25">
@@ -7015,97 +7525,97 @@
         <v>29</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -7113,16 +7623,16 @@
         <v>30</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F38" s="1">
         <v>1000000</v>
@@ -7211,28 +7721,28 @@
         <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F39" s="1">
         <v>13200000</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J39" s="1">
         <v>72200000</v>
@@ -7309,16 +7819,16 @@
         <v>32</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F40" s="1">
         <v>14200000</v>
@@ -7407,16 +7917,16 @@
         <v>33</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F41" s="1">
         <v>1200000</v>
@@ -7505,76 +8015,76 @@
         <v>34</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z42" s="1">
         <v>5633000</v>
@@ -7603,16 +8113,16 @@
         <v>35</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F43" s="1">
         <v>800000</v>
@@ -7701,16 +8211,16 @@
         <v>36</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F44" s="10">
         <v>16200000</v>
@@ -7799,16 +8309,16 @@
         <v>37</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F45" s="1">
         <v>1600000</v>
@@ -7897,46 +8407,46 @@
         <v>38</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P46" s="1">
         <v>3315000</v>
@@ -7995,40 +8505,40 @@
         <v>39</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N47" s="1">
         <v>21765000</v>
@@ -8093,40 +8603,40 @@
         <v>40</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N48" s="1">
         <v>21765000</v>
@@ -8191,97 +8701,97 @@
         <v>41</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -8289,34 +8799,34 @@
         <v>42</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L50" s="1">
         <v>44275000</v>
@@ -8387,16 +8897,16 @@
         <v>43</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F51" s="1">
         <v>500000</v>
@@ -8485,16 +8995,16 @@
         <v>44</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F52" s="1">
         <v>2100000</v>
@@ -8583,97 +9093,97 @@
         <v>45</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:32" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -8681,16 +9191,16 @@
         <v>46</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F54" s="11">
         <v>18300000</v>
@@ -8779,16 +9289,16 @@
         <v>47</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F55" s="1">
         <v>1100000</v>
@@ -8877,19 +9387,19 @@
         <v>48</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G56" s="1">
         <v>800000</v>
@@ -8904,58 +9414,58 @@
         <v>32300000</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P56" s="1">
         <v>160000000</v>
       </c>
       <c r="Q56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S56" s="1">
         <v>136032000</v>
       </c>
       <c r="T56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W56" s="1">
         <v>164047000</v>
       </c>
       <c r="X56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA56" s="1">
         <v>78451000</v>
       </c>
       <c r="AB56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC56" s="1">
         <v>6357000</v>
@@ -8975,52 +9485,52 @@
         <v>49</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R57" s="1">
         <v>638000</v>
@@ -9029,28 +9539,28 @@
         <v>486000</v>
       </c>
       <c r="T57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB57" s="1">
         <v>16390000</v>
@@ -9073,34 +9583,34 @@
         <v>50</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L58" s="1">
         <v>14398000</v>
@@ -9127,16 +9637,16 @@
         <v>320000</v>
       </c>
       <c r="T58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V58" s="1">
         <v>8113000</v>
       </c>
       <c r="W58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X58" s="1">
         <v>4133000</v>
@@ -9171,16 +9681,16 @@
         <v>51</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F59" s="1">
         <v>10700000</v>
@@ -9269,16 +9779,16 @@
         <v>52</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F60" s="10">
         <v>11800000</v>
@@ -9367,16 +9877,16 @@
         <v>53</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F61" s="1">
         <v>700000</v>
@@ -9388,28 +9898,28 @@
         <v>100000</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O61" s="1">
         <v>160000000</v>
       </c>
       <c r="P61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q61" s="1">
         <v>160000000</v>
@@ -9465,97 +9975,97 @@
         <v>50</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R62" s="1">
         <v>90000</v>
       </c>
       <c r="S62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -9563,76 +10073,76 @@
         <v>54</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z63" s="1">
         <v>11600000</v>
@@ -9661,16 +10171,16 @@
         <v>55</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F64" s="1">
         <v>13700000</v>
@@ -9759,16 +10269,16 @@
         <v>56</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F65" s="1">
         <v>14400000</v>
@@ -9857,97 +10367,97 @@
         <v>57</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -9955,16 +10465,16 @@
         <v>58</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F67" s="10">
         <v>26200000</v>
@@ -10053,31 +10563,31 @@
         <v>59</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K68" s="1">
         <v>97000</v>
@@ -10143,7 +10653,7 @@
         <v>109000</v>
       </c>
       <c r="AF68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="69" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -10151,16 +10661,16 @@
         <v>60</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F69" s="1">
         <v>-30100000</v>
@@ -10249,16 +10759,16 @@
         <v>61</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F70" s="1">
         <v>-4100000</v>
@@ -10347,16 +10857,16 @@
         <v>62</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F71" s="1">
         <v>26300000</v>
@@ -10445,16 +10955,16 @@
         <v>63</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F72" s="10">
         <v>-7900000</v>
@@ -10543,16 +11053,16 @@
         <v>64</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F73" s="11">
         <v>18300000</v>
@@ -10641,97 +11151,97 @@
         <v>28</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="X74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Z74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AA74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AB74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AC74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AD74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AE74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AF74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:32" ht="21" x14ac:dyDescent="0.25">
@@ -10739,97 +11249,97 @@
         <v>65</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -10837,10 +11347,10 @@
         <v>66</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D76" s="1">
         <v>-6600000</v>
@@ -10935,10 +11445,10 @@
         <v>13</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D77" s="1">
         <v>1700000</v>
@@ -11033,22 +11543,22 @@
         <v>67</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H78" s="1">
         <v>-3300000</v>
@@ -11060,22 +11570,22 @@
         <v>-38621000</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q78" s="1">
         <v>-21866000</v>
@@ -11084,7 +11594,7 @@
         <v>125180000</v>
       </c>
       <c r="S78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T78" s="1">
         <v>-778000</v>
@@ -11131,52 +11641,52 @@
         <v>68</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R79" s="1">
         <v>37167000</v>
@@ -11225,131 +11735,131 @@
       </c>
     </row>
     <row r="80" spans="1:32" ht="19" x14ac:dyDescent="0.25">
-      <c r="A80" s="58" t="s">
-        <v>157</v>
-      </c>
-      <c r="B80" s="37" t="e">
-        <f t="shared" ref="B80:AF80" si="6">B79/B3</f>
+      <c r="A80" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="B80" s="24" t="e">
+        <f t="shared" ref="B80:AF80" si="8">B79/B3</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C80" s="37" t="e">
-        <f t="shared" si="6"/>
+      <c r="C80" s="24" t="e">
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D80" s="37" t="e">
-        <f t="shared" si="6"/>
+      <c r="D80" s="24" t="e">
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E80" s="37" t="e">
-        <f t="shared" si="6"/>
+      <c r="E80" s="24" t="e">
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F80" s="37" t="e">
-        <f t="shared" si="6"/>
+      <c r="F80" s="24" t="e">
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G80" s="37" t="e">
-        <f t="shared" si="6"/>
+      <c r="G80" s="24" t="e">
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H80" s="37" t="e">
-        <f t="shared" si="6"/>
+      <c r="H80" s="24" t="e">
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I80" s="37" t="e">
-        <f t="shared" si="6"/>
+      <c r="I80" s="24" t="e">
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
-      <c r="J80" s="37" t="e">
-        <f t="shared" si="6"/>
+      <c r="J80" s="24" t="e">
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
-      <c r="K80" s="37" t="e">
-        <f t="shared" si="6"/>
+      <c r="K80" s="24" t="e">
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L80" s="37" t="e">
-        <f t="shared" si="6"/>
+      <c r="L80" s="24" t="e">
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M80" s="37" t="e">
-        <f t="shared" si="6"/>
+      <c r="M80" s="24" t="e">
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
-      <c r="N80" s="37" t="e">
-        <f t="shared" si="6"/>
+      <c r="N80" s="24" t="e">
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O80" s="37" t="e">
-        <f t="shared" si="6"/>
+      <c r="O80" s="24" t="e">
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
-      <c r="P80" s="37" t="e">
-        <f t="shared" si="6"/>
+      <c r="P80" s="24" t="e">
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
-      <c r="Q80" s="37" t="e">
-        <f t="shared" si="6"/>
+      <c r="Q80" s="24" t="e">
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
-      <c r="R80" s="37">
-        <f t="shared" si="6"/>
+      <c r="R80" s="24">
+        <f t="shared" si="8"/>
         <v>0.26083203503305402</v>
       </c>
-      <c r="S80" s="37">
-        <f t="shared" si="6"/>
+      <c r="S80" s="24">
+        <f t="shared" si="8"/>
         <v>0.27949596042723018</v>
       </c>
-      <c r="T80" s="37">
-        <f t="shared" si="6"/>
+      <c r="T80" s="24">
+        <f t="shared" si="8"/>
         <v>9.4461795355453168E-2</v>
       </c>
-      <c r="U80" s="37">
-        <f t="shared" si="6"/>
+      <c r="U80" s="24">
+        <f t="shared" si="8"/>
         <v>8.9626492254204243E-2</v>
       </c>
-      <c r="V80" s="37">
-        <f t="shared" si="6"/>
+      <c r="V80" s="24">
+        <f t="shared" si="8"/>
         <v>9.632943247411889E-2</v>
       </c>
-      <c r="W80" s="37">
-        <f t="shared" si="6"/>
+      <c r="W80" s="24">
+        <f t="shared" si="8"/>
         <v>5.5178433965252432E-2</v>
       </c>
-      <c r="X80" s="37">
-        <f t="shared" si="6"/>
+      <c r="X80" s="24">
+        <f t="shared" si="8"/>
         <v>4.9669879079303203E-2</v>
       </c>
-      <c r="Y80" s="37">
-        <f t="shared" si="6"/>
+      <c r="Y80" s="24">
+        <f t="shared" si="8"/>
         <v>5.0952146295033716E-2</v>
       </c>
-      <c r="Z80" s="37">
-        <f t="shared" si="6"/>
+      <c r="Z80" s="24">
+        <f t="shared" si="8"/>
         <v>6.2427769706800716E-2</v>
       </c>
-      <c r="AA80" s="37">
-        <f t="shared" si="6"/>
+      <c r="AA80" s="24">
+        <f t="shared" si="8"/>
         <v>6.9710706799356897E-2</v>
       </c>
-      <c r="AB80" s="37">
-        <f t="shared" si="6"/>
+      <c r="AB80" s="24">
+        <f t="shared" si="8"/>
         <v>9.401343419794897E-2</v>
       </c>
-      <c r="AC80" s="37">
-        <f t="shared" si="6"/>
+      <c r="AC80" s="24">
+        <f t="shared" si="8"/>
         <v>0.1181821833975369</v>
       </c>
-      <c r="AD80" s="37">
-        <f t="shared" si="6"/>
+      <c r="AD80" s="24">
+        <f t="shared" si="8"/>
         <v>0.10619286747107071</v>
       </c>
-      <c r="AE80" s="37">
-        <f t="shared" si="6"/>
+      <c r="AE80" s="24">
+        <f t="shared" si="8"/>
         <v>8.3721185242945556E-2</v>
       </c>
-      <c r="AF80" s="37">
-        <f t="shared" si="6"/>
+      <c r="AF80" s="24">
+        <f t="shared" si="8"/>
         <v>7.8171827622676687E-2</v>
       </c>
     </row>
@@ -11358,10 +11868,10 @@
         <v>69</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D81" s="1">
         <v>3200000</v>
@@ -11456,52 +11966,52 @@
         <v>70</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R82" s="1">
         <v>417000</v>
@@ -11554,76 +12064,76 @@
         <v>34</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z83" s="1">
         <v>1748000</v>
@@ -11646,62 +12156,62 @@
       <c r="AF83" s="1">
         <v>-12702000</v>
       </c>
-      <c r="AM83" s="62" t="s">
-        <v>115</v>
-      </c>
-      <c r="AN83" s="63"/>
+      <c r="AM83" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="AN83" s="68"/>
     </row>
     <row r="84" spans="1:40" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R84" s="1">
         <v>-3607000</v>
@@ -11748,62 +12258,62 @@
       <c r="AF84" s="1">
         <v>11975000</v>
       </c>
-      <c r="AM84" s="64" t="s">
-        <v>116</v>
-      </c>
-      <c r="AN84" s="65"/>
+      <c r="AM84" s="69" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN84" s="69"/>
     </row>
     <row r="85" spans="1:40" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>71</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E85" s="1">
         <v>4400000</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R85" s="1">
         <v>-879000</v>
@@ -11812,16 +12322,16 @@
         <v>-1564000</v>
       </c>
       <c r="T85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X85" s="1">
         <v>3667000</v>
@@ -11848,12 +12358,12 @@
         <v>15496000</v>
       </c>
       <c r="AF85" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AM85" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="AN85" s="27">
+        <v>91</v>
+      </c>
+      <c r="AM85" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="AN85" s="43">
         <f>AF17</f>
         <v>1874000</v>
       </c>
@@ -11863,10 +12373,10 @@
         <v>72</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D86" s="1">
         <v>-100000</v>
@@ -11875,7 +12385,7 @@
         <v>2300000</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G86" s="1">
         <v>-100000</v>
@@ -11953,12 +12463,12 @@
         <v>13945000</v>
       </c>
       <c r="AF86" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AM86" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="AN86" s="27">
+        <v>91</v>
+      </c>
+      <c r="AM86" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="AN86" s="43">
         <f>AF56</f>
         <v>15402000</v>
       </c>
@@ -11968,10 +12478,10 @@
         <v>73</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D87" s="10">
         <v>-1800000</v>
@@ -12060,10 +12570,10 @@
       <c r="AF87" s="10">
         <v>230393000</v>
       </c>
-      <c r="AM87" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="AN87" s="27">
+      <c r="AM87" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="AN87" s="43">
         <f>AF61</f>
         <v>29079000</v>
       </c>
@@ -12073,10 +12583,10 @@
         <v>74</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D88" s="1">
         <v>-500000</v>
@@ -12163,148 +12673,148 @@
         <v>-13792000</v>
       </c>
       <c r="AF88" s="1">
-        <v>-1000</v>
-      </c>
-      <c r="AM88" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="AN88" s="29">
+        <v>-40556000</v>
+      </c>
+      <c r="AM88" s="44" t="s">
+        <v>119</v>
+      </c>
+      <c r="AN88" s="45">
         <f>AN85/(AN86+AN87)</f>
         <v>4.2130347788943596E-2</v>
       </c>
     </row>
     <row r="89" spans="1:40" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="58" t="s">
-        <v>158</v>
-      </c>
-      <c r="B89" s="37" t="e">
-        <f t="shared" ref="B89:AF89" si="7">(-1*B88)/B3</f>
+      <c r="A89" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="B89" s="24" t="e">
+        <f t="shared" ref="B89:AF89" si="9">(-1*B88)/B3</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C89" s="37" t="e">
-        <f t="shared" si="7"/>
+      <c r="C89" s="24" t="e">
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D89" s="37">
-        <f t="shared" si="7"/>
+      <c r="D89" s="24">
+        <f t="shared" si="9"/>
         <v>0.1</v>
       </c>
-      <c r="E89" s="37">
-        <f t="shared" si="7"/>
+      <c r="E89" s="24">
+        <f t="shared" si="9"/>
         <v>0.16216216216216217</v>
       </c>
-      <c r="F89" s="37">
-        <f t="shared" si="7"/>
+      <c r="F89" s="24">
+        <f t="shared" si="9"/>
         <v>0.17699115044247787</v>
       </c>
-      <c r="G89" s="37">
-        <f t="shared" si="7"/>
+      <c r="G89" s="24">
+        <f t="shared" si="9"/>
         <v>0.15</v>
       </c>
-      <c r="H89" s="37">
-        <f t="shared" si="7"/>
+      <c r="H89" s="24">
+        <f t="shared" si="9"/>
         <v>5.8047493403693931E-2</v>
       </c>
-      <c r="I89" s="37">
-        <f t="shared" si="7"/>
+      <c r="I89" s="24">
+        <f t="shared" si="9"/>
         <v>7.6036866359447008E-2</v>
       </c>
-      <c r="J89" s="37">
-        <f t="shared" si="7"/>
+      <c r="J89" s="24">
+        <f t="shared" si="9"/>
         <v>7.9683588942207964E-2</v>
       </c>
-      <c r="K89" s="37">
-        <f t="shared" si="7"/>
+      <c r="K89" s="24">
+        <f t="shared" si="9"/>
         <v>0.1159696142027996</v>
       </c>
-      <c r="L89" s="37">
-        <f t="shared" si="7"/>
+      <c r="L89" s="24">
+        <f t="shared" si="9"/>
         <v>2.5050484129860717E-2</v>
       </c>
-      <c r="M89" s="37">
-        <f t="shared" si="7"/>
+      <c r="M89" s="24">
+        <f t="shared" si="9"/>
         <v>3.5565933182744938E-2</v>
       </c>
-      <c r="N89" s="37">
-        <f t="shared" si="7"/>
+      <c r="N89" s="24">
+        <f t="shared" si="9"/>
         <v>8.4618358021453122E-2</v>
       </c>
-      <c r="O89" s="37">
-        <f t="shared" si="7"/>
+      <c r="O89" s="24">
+        <f t="shared" si="9"/>
         <v>5.0293260728507996E-2</v>
       </c>
-      <c r="P89" s="37">
-        <f t="shared" si="7"/>
+      <c r="P89" s="24">
+        <f t="shared" si="9"/>
         <v>7.7839896786877194E-2</v>
       </c>
-      <c r="Q89" s="37">
-        <f t="shared" si="7"/>
+      <c r="Q89" s="24">
+        <f t="shared" si="9"/>
         <v>5.3606757808158274E-2</v>
       </c>
-      <c r="R89" s="37">
-        <f t="shared" si="7"/>
+      <c r="R89" s="24">
+        <f t="shared" si="9"/>
         <v>6.9273092200373351E-2</v>
       </c>
-      <c r="S89" s="37">
-        <f t="shared" si="7"/>
+      <c r="S89" s="24">
+        <f t="shared" si="9"/>
         <v>2.3582609926818692E-2</v>
       </c>
-      <c r="T89" s="37">
-        <f t="shared" si="7"/>
+      <c r="T89" s="24">
+        <f t="shared" si="9"/>
         <v>8.2562849809827143E-2</v>
       </c>
-      <c r="U89" s="37">
-        <f t="shared" si="7"/>
+      <c r="U89" s="24">
+        <f t="shared" si="9"/>
         <v>6.2206471317025384E-2</v>
       </c>
-      <c r="V89" s="37">
-        <f t="shared" si="7"/>
+      <c r="V89" s="24">
+        <f t="shared" si="9"/>
         <v>9.3180546120290017E-2</v>
       </c>
-      <c r="W89" s="37">
-        <f t="shared" si="7"/>
+      <c r="W89" s="24">
+        <f t="shared" si="9"/>
         <v>2.5554233686063771E-2</v>
       </c>
-      <c r="X89" s="37">
-        <f t="shared" si="7"/>
+      <c r="X89" s="24">
+        <f t="shared" si="9"/>
         <v>2.429204405209099E-2</v>
       </c>
-      <c r="Y89" s="37">
-        <f t="shared" si="7"/>
+      <c r="Y89" s="24">
+        <f t="shared" si="9"/>
         <v>2.0696778026043108E-2</v>
       </c>
-      <c r="Z89" s="37">
-        <f t="shared" si="7"/>
+      <c r="Z89" s="24">
+        <f t="shared" si="9"/>
         <v>2.5419121382543517E-2</v>
       </c>
-      <c r="AA89" s="37">
-        <f t="shared" si="7"/>
+      <c r="AA89" s="24">
+        <f t="shared" si="9"/>
         <v>2.3874575167389136E-2</v>
       </c>
-      <c r="AB89" s="37">
-        <f t="shared" si="7"/>
+      <c r="AB89" s="24">
+        <f t="shared" si="9"/>
         <v>4.6548241573349594E-2</v>
       </c>
-      <c r="AC89" s="37">
-        <f t="shared" si="7"/>
+      <c r="AC89" s="24">
+        <f t="shared" si="9"/>
         <v>2.8889374941413311E-2</v>
       </c>
-      <c r="AD89" s="37">
-        <f t="shared" si="7"/>
+      <c r="AD89" s="24">
+        <f t="shared" si="9"/>
         <v>0.12246495322290286</v>
       </c>
-      <c r="AE89" s="37">
-        <f t="shared" si="7"/>
+      <c r="AE89" s="24">
+        <f t="shared" si="9"/>
         <v>4.2009844534334033E-2</v>
       </c>
-      <c r="AF89" s="37">
-        <f t="shared" si="7"/>
-        <v>2.1988025321409961E-6</v>
-      </c>
-      <c r="AM89" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="AN89" s="27">
+      <c r="AF89" s="24">
+        <f t="shared" si="9"/>
+        <v>8.9174635493510235E-2</v>
+      </c>
+      <c r="AM89" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="AN89" s="43">
         <f>AF27</f>
         <v>6485000</v>
       </c>
@@ -12314,43 +12824,43 @@
         <v>75</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J90" s="1">
         <v>-1334000</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O90" s="1">
         <v>-5434000</v>
@@ -12362,7 +12872,7 @@
         <v>-1139000</v>
       </c>
       <c r="R90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S90" s="1">
         <v>-26000000</v>
@@ -12377,19 +12887,19 @@
         <v>-46278000</v>
       </c>
       <c r="W90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z90" s="1">
         <v>-202523000</v>
       </c>
       <c r="AA90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB90" s="1">
         <v>-3000000</v>
@@ -12398,7 +12908,7 @@
         <v>8259000</v>
       </c>
       <c r="AD90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE90" s="1">
         <v>-97115000</v>
@@ -12406,10 +12916,10 @@
       <c r="AF90" s="1">
         <v>3009000</v>
       </c>
-      <c r="AM90" s="26" t="s">
+      <c r="AM90" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="AN90" s="27">
+      <c r="AN90" s="43">
         <f>AF25</f>
         <v>-7825000</v>
       </c>
@@ -12419,16 +12929,16 @@
         <v>76</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F91" s="1">
         <v>-20100000</v>
@@ -12511,10 +13021,10 @@
       <c r="AF91" s="1">
         <v>-150949000</v>
       </c>
-      <c r="AM91" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="AN91" s="29">
+      <c r="AM91" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="AN91" s="45">
         <f>AN89/AN90</f>
         <v>-0.82875399361022362</v>
       </c>
@@ -12524,16 +13034,16 @@
         <v>77</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F92" s="1">
         <v>25400000</v>
@@ -12616,10 +13126,10 @@
       <c r="AF92" s="1">
         <v>340476000</v>
       </c>
-      <c r="AM92" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="AN92" s="31">
+      <c r="AM92" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="AN92" s="45">
         <f>AN88*(1-AN91)</f>
         <v>7.7046041771218265E-2</v>
       </c>
@@ -12629,10 +13139,10 @@
         <v>78</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D93" s="1">
         <v>-3100000</v>
@@ -12644,10 +13154,10 @@
         <v>600000</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I93" s="1">
         <v>-2500000</v>
@@ -12716,25 +13226,25 @@
         <v>-1131000</v>
       </c>
       <c r="AE93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF93" s="1">
         <v>-40556000</v>
       </c>
-      <c r="AM93" s="64" t="s">
-        <v>124</v>
-      </c>
-      <c r="AN93" s="65"/>
+      <c r="AM93" s="69" t="s">
+        <v>123</v>
+      </c>
+      <c r="AN93" s="69"/>
     </row>
     <row r="94" spans="1:40" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>79</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D94" s="10">
         <v>-3600000</v>
@@ -12823,11 +13333,12 @@
       <c r="AF94" s="10">
         <v>151979000</v>
       </c>
-      <c r="AM94" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="AN94" s="32">
-        <v>4.095E-2</v>
+      <c r="AM94" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="AN94" s="46">
+        <f>[1]Treasuries!$C$8</f>
+        <v>3.9120000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:40" ht="20" x14ac:dyDescent="0.25">
@@ -12835,58 +13346,58 @@
         <v>80</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R95" s="1">
         <v>-19929000</v>
       </c>
       <c r="S95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T95" s="1">
         <v>-141224000</v>
@@ -12916,21 +13427,21 @@
         <v>-82287000</v>
       </c>
       <c r="AC95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF95" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AM95" s="33" t="s">
-        <v>126</v>
-      </c>
-      <c r="AN95" s="34" cm="1">
+        <v>91</v>
+      </c>
+      <c r="AM95" s="47" t="s">
+        <v>125</v>
+      </c>
+      <c r="AN95" s="48" cm="1">
         <f t="array" ref="AN95">_FV(A1,"Beta")</f>
         <v>1.2679</v>
       </c>
@@ -12940,16 +13451,16 @@
         <v>81</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F96" s="1">
         <v>200000</v>
@@ -13000,42 +13511,42 @@
         <v>12282000</v>
       </c>
       <c r="V96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AF96" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AM96" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="AN96" s="32">
+        <v>91</v>
+      </c>
+      <c r="AM96" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="AN96" s="49">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -13044,10 +13555,10 @@
         <v>82</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D97" s="1">
         <v>5000000</v>
@@ -13056,22 +13567,22 @@
         <v>9100000</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L97" s="1">
         <v>-23930000</v>
@@ -13089,34 +13600,34 @@
         <v>-20955000</v>
       </c>
       <c r="Q97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R97" s="1">
         <v>-49226000</v>
       </c>
       <c r="S97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T97" s="1">
         <v>-195108000</v>
       </c>
       <c r="U97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y97" s="1">
         <v>-100113000</v>
       </c>
       <c r="Z97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA97" s="1">
         <v>-50038000</v>
@@ -13125,7 +13636,7 @@
         <v>-50033000</v>
       </c>
       <c r="AC97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD97" s="1">
         <v>-50069000</v>
@@ -13136,12 +13647,12 @@
       <c r="AF97" s="1">
         <v>-100421000</v>
       </c>
-      <c r="AM97" s="30" t="s">
-        <v>128</v>
-      </c>
-      <c r="AN97" s="31">
+      <c r="AM97" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="AN97" s="45">
         <f>(AN94)+((AN95)*(AN96-AN94))</f>
-        <v>9.5533095000000012E-2</v>
+        <v>9.6023352000000006E-2</v>
       </c>
     </row>
     <row r="98" spans="1:40" ht="19" x14ac:dyDescent="0.25">
@@ -13149,112 +13660,112 @@
         <v>83</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AD98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AE98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AF98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AM98" s="64" t="s">
-        <v>129</v>
-      </c>
-      <c r="AN98" s="65"/>
+        <v>91</v>
+      </c>
+      <c r="AF98" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM98" s="69" t="s">
+        <v>128</v>
+      </c>
+      <c r="AN98" s="69"/>
     </row>
     <row r="99" spans="1:40" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D99" s="1">
         <v>-500000</v>
@@ -13275,19 +13786,19 @@
         <v>-200000</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O99" s="1">
         <v>179362000</v>
@@ -13299,7 +13810,7 @@
         <v>-4250000</v>
       </c>
       <c r="R99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S99" s="1">
         <v>168187000</v>
@@ -13343,10 +13854,10 @@
       <c r="AF99" s="1">
         <v>-262514000</v>
       </c>
-      <c r="AM99" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="AN99" s="27">
+      <c r="AM99" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="AN99" s="43">
         <f>AN86+AN87</f>
         <v>44481000</v>
       </c>
@@ -13356,10 +13867,10 @@
         <v>85</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D100" s="10">
         <v>4500000</v>
@@ -13448,10 +13959,10 @@
       <c r="AF100" s="10">
         <v>-362935000</v>
       </c>
-      <c r="AM100" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="AN100" s="29">
+      <c r="AM100" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="AN100" s="45">
         <f>AN99/AN103</f>
         <v>6.3281432723163045E-3</v>
       </c>
@@ -13461,25 +13972,25 @@
         <v>86</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I101" s="1">
         <v>200000</v>
@@ -13512,16 +14023,16 @@
         <v>60000</v>
       </c>
       <c r="S101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W101" s="1">
         <v>-138000</v>
@@ -13553,10 +14064,10 @@
       <c r="AF101" s="1">
         <v>-2007000</v>
       </c>
-      <c r="AM101" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="AN101" s="35" cm="1">
+      <c r="AM101" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="AN101" s="50" cm="1">
         <f t="array" ref="AN101">_FV(A1,"Market cap",TRUE)</f>
         <v>6984595000</v>
       </c>
@@ -13566,10 +14077,10 @@
         <v>87</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D102" s="10">
         <v>-900000</v>
@@ -13658,10 +14169,10 @@
       <c r="AF102" s="10">
         <v>17430000</v>
       </c>
-      <c r="AM102" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="AN102" s="29">
+      <c r="AM102" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="AN102" s="45">
         <f>AN101/AN103</f>
         <v>0.99367185672768366</v>
       </c>
@@ -13671,16 +14182,16 @@
         <v>88</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D103" s="1">
         <v>115924000</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F103" s="1">
         <v>1000000</v>
@@ -13763,10 +14274,10 @@
       <c r="AF103" s="1">
         <v>108264000</v>
       </c>
-      <c r="AM103" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="AN103" s="36">
+      <c r="AM103" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="AN103" s="51">
         <f>AN99+AN101</f>
         <v>7029076000</v>
       </c>
@@ -13776,10 +14287,10 @@
         <v>89</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D104" s="11">
         <v>115024000</v>
@@ -13788,10 +14299,10 @@
         <v>-600000</v>
       </c>
       <c r="F104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H104" s="11">
         <v>25800000</v>
@@ -13868,444 +14379,551 @@
       <c r="AF104" s="11">
         <v>125694000</v>
       </c>
-      <c r="AM104" s="64" t="s">
-        <v>135</v>
-      </c>
-      <c r="AN104" s="65"/>
+      <c r="AM104" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="AN104" s="69"/>
     </row>
     <row r="105" spans="1:40" ht="21" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="58" t="s">
-        <v>159</v>
-      </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="37" t="e">
-        <f>(C106/B106)-1</f>
+      <c r="A105" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="B105" s="1" t="e">
+        <f t="shared" ref="B105:AE105" si="10">(B22*(1-0.2))+B77+B88+B81</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D105" s="37" t="e">
-        <f>(D106/C106)-1</f>
+      <c r="C105" s="1" t="e">
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E105" s="37">
-        <f>(E106/D106)-1</f>
-        <v>-1.0434782608695652</v>
-      </c>
-      <c r="F105" s="37">
-        <f>(F106/E106)-1</f>
-        <v>-56</v>
-      </c>
-      <c r="G105" s="37">
-        <f>(G106/F106)-1</f>
-        <v>-6.0909090909090908</v>
-      </c>
-      <c r="H105" s="37">
-        <f t="shared" ref="H105:AF105" si="8">(H106/G106)-1</f>
-        <v>-0.49642857142857144</v>
-      </c>
-      <c r="I105" s="37">
-        <f t="shared" si="8"/>
-        <v>-0.94326241134751776</v>
-      </c>
-      <c r="J105" s="37">
-        <f t="shared" si="8"/>
-        <v>35.813749999999999</v>
-      </c>
-      <c r="K105" s="37">
-        <f t="shared" si="8"/>
-        <v>-0.42331330005772305</v>
-      </c>
-      <c r="L105" s="37">
-        <f t="shared" si="8"/>
-        <v>0.81488459726801699</v>
-      </c>
-      <c r="M105" s="37">
-        <f t="shared" si="8"/>
-        <v>-0.37678432390345185</v>
-      </c>
-      <c r="N105" s="37">
-        <f t="shared" si="8"/>
-        <v>0.6368558042686101</v>
-      </c>
-      <c r="O105" s="37">
-        <f t="shared" si="8"/>
-        <v>-0.19774837806894796</v>
-      </c>
-      <c r="P105" s="37">
-        <f t="shared" si="8"/>
-        <v>0.911559502101007</v>
-      </c>
-      <c r="Q105" s="37">
-        <f t="shared" si="8"/>
-        <v>-1.0642458679828291</v>
-      </c>
-      <c r="R105" s="37">
-        <f t="shared" si="8"/>
-        <v>14.702065848934797</v>
-      </c>
-      <c r="S105" s="37">
-        <f t="shared" si="8"/>
-        <v>-5.936889711172777E-2</v>
-      </c>
-      <c r="T105" s="37">
-        <f t="shared" si="8"/>
-        <v>-5.3874816967895622</v>
-      </c>
-      <c r="U105" s="37">
-        <f t="shared" si="8"/>
-        <v>-0.83885573675768832</v>
-      </c>
-      <c r="V105" s="37">
-        <f t="shared" si="8"/>
-        <v>-2.2676578776544773</v>
-      </c>
-      <c r="W105" s="37">
-        <f t="shared" si="8"/>
-        <v>-2.0179956108266275</v>
-      </c>
-      <c r="X105" s="37">
-        <f t="shared" si="8"/>
-        <v>0.67059499856280547</v>
-      </c>
-      <c r="Y105" s="37">
-        <f t="shared" si="8"/>
-        <v>8.1153934388620286E-3</v>
-      </c>
-      <c r="Z105" s="37">
-        <f t="shared" si="8"/>
-        <v>0.19445313611150628</v>
-      </c>
-      <c r="AA105" s="37">
-        <f t="shared" si="8"/>
-        <v>0.28518015765283034</v>
-      </c>
-      <c r="AB105" s="37">
-        <f t="shared" si="8"/>
-        <v>-0.29580661898232219</v>
-      </c>
-      <c r="AC105" s="37">
-        <f t="shared" si="8"/>
-        <v>0.60598644825998282</v>
-      </c>
-      <c r="AD105" s="37">
-        <f t="shared" si="8"/>
-        <v>0.27582477900756164</v>
-      </c>
-      <c r="AE105" s="37">
-        <f t="shared" si="8"/>
-        <v>0.25488823676724603</v>
-      </c>
-      <c r="AF105" s="37">
-        <f t="shared" si="8"/>
-        <v>0.17892797748496858</v>
-      </c>
-      <c r="AG105" s="37"/>
-      <c r="AH105" s="37"/>
-      <c r="AI105" s="37"/>
-      <c r="AJ105" s="37"/>
-      <c r="AK105" s="37"/>
-      <c r="AL105" s="37"/>
-      <c r="AM105" s="38" t="s">
-        <v>136</v>
-      </c>
-      <c r="AN105" s="39">
+      <c r="D105" s="1">
+        <f t="shared" si="10"/>
+        <v>-560000</v>
+      </c>
+      <c r="E105" s="1">
+        <f t="shared" si="10"/>
+        <v>-80000</v>
+      </c>
+      <c r="F105" s="1">
+        <f t="shared" si="10"/>
+        <v>-4700000</v>
+      </c>
+      <c r="G105" s="1">
+        <f t="shared" si="10"/>
+        <v>27620000</v>
+      </c>
+      <c r="H105" s="1">
+        <f t="shared" si="10"/>
+        <v>15700000</v>
+      </c>
+      <c r="I105" s="1">
+        <f t="shared" si="10"/>
+        <v>-4520000</v>
+      </c>
+      <c r="J105" s="1">
+        <f t="shared" si="10"/>
+        <v>26382600</v>
+      </c>
+      <c r="K105" s="1">
+        <f t="shared" si="10"/>
+        <v>32036000</v>
+      </c>
+      <c r="L105" s="1">
+        <f t="shared" si="10"/>
+        <v>31398600</v>
+      </c>
+      <c r="M105" s="1">
+        <f t="shared" si="10"/>
+        <v>358000</v>
+      </c>
+      <c r="N105" s="1">
+        <f t="shared" si="10"/>
+        <v>-6366400</v>
+      </c>
+      <c r="O105" s="1">
+        <f t="shared" si="10"/>
+        <v>26470600</v>
+      </c>
+      <c r="P105" s="1">
+        <f t="shared" si="10"/>
+        <v>-7132600</v>
+      </c>
+      <c r="Q105" s="1">
+        <f t="shared" si="10"/>
+        <v>-54915000</v>
+      </c>
+      <c r="R105" s="1">
+        <f t="shared" si="10"/>
+        <v>-83300400</v>
+      </c>
+      <c r="S105" s="1">
+        <f t="shared" si="10"/>
+        <v>-59930600</v>
+      </c>
+      <c r="T105" s="1">
+        <f t="shared" si="10"/>
+        <v>198327600</v>
+      </c>
+      <c r="U105" s="1">
+        <f t="shared" si="10"/>
+        <v>38013200</v>
+      </c>
+      <c r="V105" s="1">
+        <f t="shared" si="10"/>
+        <v>-53769200</v>
+      </c>
+      <c r="W105" s="1">
+        <f t="shared" si="10"/>
+        <v>41147200</v>
+      </c>
+      <c r="X105" s="1">
+        <f t="shared" si="10"/>
+        <v>74945800</v>
+      </c>
+      <c r="Y105" s="1">
+        <f t="shared" si="10"/>
+        <v>71130000</v>
+      </c>
+      <c r="Z105" s="1">
+        <f t="shared" si="10"/>
+        <v>74728600</v>
+      </c>
+      <c r="AA105" s="1">
+        <f t="shared" si="10"/>
+        <v>98614600</v>
+      </c>
+      <c r="AB105" s="1">
+        <f t="shared" si="10"/>
+        <v>54230400</v>
+      </c>
+      <c r="AC105" s="1">
+        <f t="shared" si="10"/>
+        <v>89044800</v>
+      </c>
+      <c r="AD105" s="1">
+        <f t="shared" si="10"/>
+        <v>129318400</v>
+      </c>
+      <c r="AE105" s="1">
+        <f t="shared" si="10"/>
+        <v>153562800</v>
+      </c>
+      <c r="AF105" s="1">
+        <f>(AF22*(1-0.2))+AF77+AF88+AF81</f>
+        <v>231948400</v>
+      </c>
+      <c r="AG105" s="25">
+        <f>AF105*(1+$AN$106)</f>
+        <v>279779310.4963063</v>
+      </c>
+      <c r="AH105" s="25">
+        <f t="shared" ref="AH105:AK105" si="11">AG105*(1+$AN$106)</f>
+        <v>337473604.39558357</v>
+      </c>
+      <c r="AI105" s="25">
+        <f t="shared" si="11"/>
+        <v>407065245.32395834</v>
+      </c>
+      <c r="AJ105" s="25">
+        <f t="shared" si="11"/>
+        <v>491007627.83337516</v>
+      </c>
+      <c r="AK105" s="25">
+        <f t="shared" si="11"/>
+        <v>592260069.75537956</v>
+      </c>
+      <c r="AL105" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="AM105" s="52" t="s">
+        <v>135</v>
+      </c>
+      <c r="AN105" s="53">
         <f>(AN100*AN92)+(AN102*AN97)</f>
-        <v>9.5416106278485346E-2</v>
+        <v>9.5903260861949072E-2</v>
       </c>
     </row>
     <row r="106" spans="1:40" ht="19" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D106" s="1">
-        <v>-2300000</v>
-      </c>
-      <c r="E106" s="1">
-        <v>100000</v>
-      </c>
-      <c r="F106" s="1">
-        <v>-5500000</v>
-      </c>
-      <c r="G106" s="1">
-        <v>28000000</v>
-      </c>
-      <c r="H106" s="1">
-        <v>14100000</v>
-      </c>
-      <c r="I106" s="1">
-        <v>800000</v>
-      </c>
-      <c r="J106" s="1">
-        <v>29451000</v>
-      </c>
-      <c r="K106" s="1">
-        <v>16984000</v>
-      </c>
-      <c r="L106" s="1">
-        <v>30824000</v>
-      </c>
-      <c r="M106" s="1">
-        <v>19210000</v>
-      </c>
-      <c r="N106" s="1">
-        <v>31444000</v>
-      </c>
-      <c r="O106" s="1">
-        <v>25226000</v>
-      </c>
-      <c r="P106" s="1">
-        <v>48221000</v>
-      </c>
-      <c r="Q106" s="1">
-        <v>-3098000</v>
-      </c>
-      <c r="R106" s="1">
-        <v>-48645000</v>
-      </c>
-      <c r="S106" s="1">
-        <v>-45757000</v>
-      </c>
-      <c r="T106" s="1">
-        <v>200758000</v>
-      </c>
-      <c r="U106" s="1">
-        <v>32351000</v>
-      </c>
-      <c r="V106" s="1">
-        <v>-41010000</v>
-      </c>
-      <c r="W106" s="1">
-        <v>41748000</v>
-      </c>
-      <c r="X106" s="1">
-        <v>69744000</v>
-      </c>
-      <c r="Y106" s="1">
-        <v>70310000</v>
-      </c>
-      <c r="Z106" s="1">
-        <v>83982000</v>
-      </c>
-      <c r="AA106" s="1">
-        <v>107932000</v>
-      </c>
-      <c r="AB106" s="1">
-        <v>76005000</v>
-      </c>
-      <c r="AC106" s="1">
-        <v>122063000</v>
-      </c>
-      <c r="AD106" s="1">
-        <v>155731000</v>
-      </c>
-      <c r="AE106" s="1">
-        <v>195425000</v>
-      </c>
-      <c r="AF106" s="1">
-        <v>230392000</v>
-      </c>
-      <c r="AG106" s="40">
-        <f>AF106*(1+$AN$106)</f>
-        <v>262509295.52352521</v>
-      </c>
-      <c r="AH106" s="40">
-        <f t="shared" ref="AH106:AK106" si="9">AG106*(1+$AN$106)</f>
-        <v>299103832.75572717</v>
-      </c>
-      <c r="AI106" s="40">
-        <f t="shared" si="9"/>
-        <v>340799751.83640164</v>
-      </c>
-      <c r="AJ106" s="40">
-        <f t="shared" si="9"/>
-        <v>388308199.8036651</v>
-      </c>
-      <c r="AK106" s="40">
-        <f t="shared" si="9"/>
-        <v>442439459.60132468</v>
-      </c>
-      <c r="AL106" s="41" t="s">
-        <v>137</v>
-      </c>
-      <c r="AM106" s="42" t="s">
-        <v>138</v>
-      </c>
-      <c r="AN106" s="43">
+      <c r="A106" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="24" t="e">
+        <f t="shared" ref="C106:AF106" si="12">(C107/B107)-1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D106" s="24" t="e">
+        <f t="shared" si="12"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E106" s="24">
+        <f t="shared" si="12"/>
+        <v>-1.0434782608695652</v>
+      </c>
+      <c r="F106" s="24">
+        <f t="shared" si="12"/>
+        <v>-56</v>
+      </c>
+      <c r="G106" s="24">
+        <f t="shared" si="12"/>
+        <v>-6.0909090909090908</v>
+      </c>
+      <c r="H106" s="24">
+        <f t="shared" si="12"/>
+        <v>-0.49642857142857144</v>
+      </c>
+      <c r="I106" s="24">
+        <f t="shared" si="12"/>
+        <v>-0.94326241134751776</v>
+      </c>
+      <c r="J106" s="24">
+        <f t="shared" si="12"/>
+        <v>35.813749999999999</v>
+      </c>
+      <c r="K106" s="24">
+        <f t="shared" si="12"/>
+        <v>-0.42331330005772305</v>
+      </c>
+      <c r="L106" s="24">
+        <f t="shared" si="12"/>
+        <v>0.81488459726801699</v>
+      </c>
+      <c r="M106" s="24">
+        <f t="shared" si="12"/>
+        <v>-0.37678432390345185</v>
+      </c>
+      <c r="N106" s="24">
+        <f t="shared" si="12"/>
+        <v>0.6368558042686101</v>
+      </c>
+      <c r="O106" s="24">
+        <f t="shared" si="12"/>
+        <v>-0.19774837806894796</v>
+      </c>
+      <c r="P106" s="24">
+        <f t="shared" si="12"/>
+        <v>0.911559502101007</v>
+      </c>
+      <c r="Q106" s="24">
+        <f t="shared" si="12"/>
+        <v>-1.0642458679828291</v>
+      </c>
+      <c r="R106" s="24">
+        <f t="shared" si="12"/>
+        <v>14.702065848934797</v>
+      </c>
+      <c r="S106" s="24">
+        <f t="shared" si="12"/>
+        <v>-5.936889711172777E-2</v>
+      </c>
+      <c r="T106" s="24">
+        <f t="shared" si="12"/>
+        <v>-5.3874816967895622</v>
+      </c>
+      <c r="U106" s="24">
+        <f t="shared" si="12"/>
+        <v>-0.83885573675768832</v>
+      </c>
+      <c r="V106" s="24">
+        <f t="shared" si="12"/>
+        <v>-2.2676578776544773</v>
+      </c>
+      <c r="W106" s="24">
+        <f t="shared" si="12"/>
+        <v>-2.0179956108266275</v>
+      </c>
+      <c r="X106" s="24">
+        <f t="shared" si="12"/>
+        <v>0.67059499856280547</v>
+      </c>
+      <c r="Y106" s="24">
+        <f t="shared" si="12"/>
+        <v>8.1153934388620286E-3</v>
+      </c>
+      <c r="Z106" s="24">
+        <f t="shared" si="12"/>
+        <v>0.19445313611150628</v>
+      </c>
+      <c r="AA106" s="24">
+        <f t="shared" si="12"/>
+        <v>0.28518015765283034</v>
+      </c>
+      <c r="AB106" s="24">
+        <f t="shared" si="12"/>
+        <v>-0.29580661898232219</v>
+      </c>
+      <c r="AC106" s="24">
+        <f t="shared" si="12"/>
+        <v>0.60598644825998282</v>
+      </c>
+      <c r="AD106" s="24">
+        <f t="shared" si="12"/>
+        <v>0.27582477900756164</v>
+      </c>
+      <c r="AE106" s="24">
+        <f t="shared" si="12"/>
+        <v>0.25488823676724603</v>
+      </c>
+      <c r="AF106" s="24">
+        <f t="shared" si="12"/>
+        <v>0.17892797748496858</v>
+      </c>
+      <c r="AG106" s="41">
+        <v>169400000</v>
+      </c>
+      <c r="AH106" s="41">
+        <v>228100000</v>
+      </c>
+      <c r="AI106" s="41">
+        <v>285000000</v>
+      </c>
+      <c r="AJ106" s="41">
+        <v>402000000</v>
+      </c>
+      <c r="AK106" s="41">
+        <v>494000000</v>
+      </c>
+      <c r="AL106" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="AM106" s="54" t="s">
+        <v>136</v>
+      </c>
+      <c r="AN106" s="55">
         <f>(SUM(AG4:AK4)/5)</f>
-        <v>0.1394028244189261</v>
+        <v>0.20621358240154417</v>
       </c>
     </row>
     <row r="107" spans="1:40" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13"/>
-      <c r="I107" s="13"/>
-      <c r="J107" s="13"/>
-      <c r="K107" s="13"/>
-      <c r="L107" s="13"/>
-      <c r="M107" s="13"/>
-      <c r="N107" s="13"/>
-      <c r="O107" s="13"/>
-      <c r="P107" s="13"/>
-      <c r="Q107" s="13"/>
-      <c r="R107" s="13"/>
-      <c r="S107" s="13"/>
-      <c r="T107" s="13"/>
-      <c r="U107" s="13"/>
-      <c r="V107" s="13"/>
-      <c r="W107" s="13"/>
-      <c r="X107" s="13"/>
-      <c r="Y107" s="13"/>
-      <c r="Z107" s="13"/>
-      <c r="AA107" s="13"/>
-      <c r="AB107" s="13"/>
-      <c r="AC107" s="13"/>
-      <c r="AD107" s="13"/>
-      <c r="AE107" s="13"/>
-      <c r="AF107" s="13"/>
-      <c r="AG107" s="41"/>
-      <c r="AH107" s="41"/>
-      <c r="AI107" s="41"/>
-      <c r="AJ107" s="41"/>
-      <c r="AK107" s="44">
+      <c r="A107" s="40" t="s">
+        <v>164</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D107" s="1">
+        <v>-2300000</v>
+      </c>
+      <c r="E107" s="1">
+        <v>100000</v>
+      </c>
+      <c r="F107" s="1">
+        <v>-5500000</v>
+      </c>
+      <c r="G107" s="1">
+        <v>28000000</v>
+      </c>
+      <c r="H107" s="1">
+        <v>14100000</v>
+      </c>
+      <c r="I107" s="1">
+        <v>800000</v>
+      </c>
+      <c r="J107" s="1">
+        <v>29451000</v>
+      </c>
+      <c r="K107" s="1">
+        <v>16984000</v>
+      </c>
+      <c r="L107" s="1">
+        <v>30824000</v>
+      </c>
+      <c r="M107" s="1">
+        <v>19210000</v>
+      </c>
+      <c r="N107" s="1">
+        <v>31444000</v>
+      </c>
+      <c r="O107" s="1">
+        <v>25226000</v>
+      </c>
+      <c r="P107" s="1">
+        <v>48221000</v>
+      </c>
+      <c r="Q107" s="1">
+        <v>-3098000</v>
+      </c>
+      <c r="R107" s="1">
+        <v>-48645000</v>
+      </c>
+      <c r="S107" s="1">
+        <v>-45757000</v>
+      </c>
+      <c r="T107" s="1">
+        <v>200758000</v>
+      </c>
+      <c r="U107" s="1">
+        <v>32351000</v>
+      </c>
+      <c r="V107" s="1">
+        <v>-41010000</v>
+      </c>
+      <c r="W107" s="1">
+        <v>41748000</v>
+      </c>
+      <c r="X107" s="1">
+        <v>69744000</v>
+      </c>
+      <c r="Y107" s="1">
+        <v>70310000</v>
+      </c>
+      <c r="Z107" s="1">
+        <v>83982000</v>
+      </c>
+      <c r="AA107" s="1">
+        <v>107932000</v>
+      </c>
+      <c r="AB107" s="1">
+        <v>76005000</v>
+      </c>
+      <c r="AC107" s="1">
+        <v>122063000</v>
+      </c>
+      <c r="AD107" s="1">
+        <v>155731000</v>
+      </c>
+      <c r="AE107" s="1">
+        <v>195425000</v>
+      </c>
+      <c r="AF107" s="1">
+        <v>230392000</v>
+      </c>
+      <c r="AG107" s="26"/>
+      <c r="AH107" s="26"/>
+      <c r="AI107" s="26"/>
+      <c r="AJ107" s="26"/>
+      <c r="AK107" s="65">
         <f>AK106*(1+AN107)/(AN108-AN107)</f>
-        <v>6440294274.4069109</v>
-      </c>
-      <c r="AL107" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="AM107" s="46" t="s">
-        <v>140</v>
-      </c>
-      <c r="AN107" s="47">
+        <v>7141420491.0248022</v>
+      </c>
+      <c r="AL107" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="AM107" s="56" t="s">
+        <v>138</v>
+      </c>
+      <c r="AN107" s="57">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:40" ht="19" x14ac:dyDescent="0.25">
-      <c r="AG108" s="44">
-        <f t="shared" ref="AG108:AI108" si="10">AG107+AG106</f>
-        <v>262509295.52352521</v>
-      </c>
-      <c r="AH108" s="44">
-        <f t="shared" si="10"/>
-        <v>299103832.75572717</v>
-      </c>
-      <c r="AI108" s="44">
-        <f t="shared" si="10"/>
-        <v>340799751.83640164</v>
-      </c>
-      <c r="AJ108" s="44">
+      <c r="AG108" s="65">
+        <f t="shared" ref="AG108:AI108" si="13">AG107+AG106</f>
+        <v>169400000</v>
+      </c>
+      <c r="AH108" s="65">
+        <f t="shared" si="13"/>
+        <v>228100000</v>
+      </c>
+      <c r="AI108" s="65">
+        <f t="shared" si="13"/>
+        <v>285000000</v>
+      </c>
+      <c r="AJ108" s="65">
         <f>AJ107+AJ106</f>
-        <v>388308199.8036651</v>
-      </c>
-      <c r="AK108" s="44">
+        <v>402000000</v>
+      </c>
+      <c r="AK108" s="65">
         <f>AK107+AK106</f>
-        <v>6882733734.0082359</v>
-      </c>
-      <c r="AL108" s="45" t="s">
-        <v>134</v>
-      </c>
-      <c r="AM108" s="48" t="s">
-        <v>141</v>
-      </c>
-      <c r="AN108" s="49">
+        <v>7635420491.0248022</v>
+      </c>
+      <c r="AL108" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="AM108" s="58" t="s">
+        <v>139</v>
+      </c>
+      <c r="AN108" s="55">
         <f>AN105</f>
-        <v>9.5416106278485346E-2</v>
+        <v>9.5903260861949072E-2</v>
       </c>
     </row>
     <row r="109" spans="1:40" ht="19" x14ac:dyDescent="0.25">
-      <c r="AG109" s="60" t="s">
-        <v>142</v>
-      </c>
-      <c r="AH109" s="61"/>
+      <c r="AG109" s="66" t="s">
+        <v>140</v>
+      </c>
+      <c r="AH109" s="66"/>
     </row>
     <row r="110" spans="1:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AG110" s="50" t="s">
-        <v>143</v>
-      </c>
-      <c r="AH110" s="35">
+      <c r="AG110" s="59" t="s">
+        <v>141</v>
+      </c>
+      <c r="AH110" s="50">
         <f>NPV(AN108,AG108,AH108,AI108,AJ108,AK108)</f>
-        <v>5381677857.6912889</v>
+        <v>5670010376.2583847</v>
       </c>
     </row>
     <row r="111" spans="1:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AG111" s="50" t="s">
-        <v>144</v>
-      </c>
-      <c r="AH111" s="35">
+      <c r="AG111" s="59" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH111" s="50">
         <f>AF40</f>
         <v>313226000</v>
       </c>
     </row>
     <row r="112" spans="1:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AG112" s="50" t="s">
-        <v>130</v>
-      </c>
-      <c r="AH112" s="35">
+      <c r="AG112" s="59" t="s">
+        <v>129</v>
+      </c>
+      <c r="AH112" s="50">
         <f>AN99</f>
         <v>44481000</v>
       </c>
     </row>
     <row r="113" spans="33:34" ht="20" x14ac:dyDescent="0.25">
-      <c r="AG113" s="50" t="s">
-        <v>145</v>
-      </c>
-      <c r="AH113" s="35">
+      <c r="AG113" s="59" t="s">
+        <v>143</v>
+      </c>
+      <c r="AH113" s="50">
         <f>AH110+AH111-AH112</f>
-        <v>5650422857.6912889</v>
+        <v>5938755376.2583847</v>
       </c>
     </row>
     <row r="114" spans="33:34" ht="20" x14ac:dyDescent="0.25">
-      <c r="AG114" s="50" t="s">
-        <v>146</v>
-      </c>
-      <c r="AH114" s="51">
+      <c r="AG114" s="59" t="s">
+        <v>144</v>
+      </c>
+      <c r="AH114" s="59">
         <f>AF34*(1+(5*AL16))</f>
         <v>108949786.34573843</v>
       </c>
     </row>
     <row r="115" spans="33:34" ht="20" x14ac:dyDescent="0.25">
-      <c r="AG115" s="52" t="s">
-        <v>147</v>
-      </c>
-      <c r="AH115" s="53">
+      <c r="AG115" s="60" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH115" s="61">
         <f>AH113/AH114</f>
-        <v>51.862633670160527</v>
+        <v>54.509105299321035</v>
       </c>
     </row>
     <row r="116" spans="33:34" ht="20" x14ac:dyDescent="0.25">
-      <c r="AG116" s="50" t="s">
-        <v>148</v>
-      </c>
-      <c r="AH116" s="54" cm="1">
+      <c r="AG116" s="59" t="s">
+        <v>146</v>
+      </c>
+      <c r="AH116" s="62" cm="1">
         <f t="array" ref="AH116">_FV(A1,"Price")</f>
         <v>64.17</v>
       </c>
     </row>
     <row r="117" spans="33:34" ht="20" x14ac:dyDescent="0.25">
-      <c r="AG117" s="55" t="s">
-        <v>149</v>
-      </c>
-      <c r="AH117" s="56">
+      <c r="AG117" s="60" t="s">
+        <v>147</v>
+      </c>
+      <c r="AH117" s="63">
         <f>AH115/AH116-1</f>
-        <v>-0.19179314835342798</v>
+        <v>-0.15055157707151268</v>
       </c>
     </row>
     <row r="118" spans="33:34" ht="20" x14ac:dyDescent="0.25">
-      <c r="AG118" s="55" t="s">
-        <v>150</v>
-      </c>
-      <c r="AH118" s="57" t="str">
+      <c r="AG118" s="60" t="s">
+        <v>148</v>
+      </c>
+      <c r="AH118" s="64" t="str">
         <f>IF(AH115&gt;AH116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
@@ -14384,8 +15002,9 @@
     <hyperlink ref="AF36" r:id="rId62" tooltip="https://www.sec.gov/Archives/edgar/data/917273/000091727323000008/0000917273-23-000008-index.htm" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
     <hyperlink ref="AF74" r:id="rId63" tooltip="https://www.sec.gov/Archives/edgar/data/917273/000091727323000008/0000917273-23-000008-index.htm" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
     <hyperlink ref="AG1" r:id="rId64" display="https://finbox.com/NASDAQGS:RMBS/explorer/revenue_proj" xr:uid="{78984A22-1CC0-3A4E-B1A0-BD032216ED7C}"/>
+    <hyperlink ref="AL106" r:id="rId65" xr:uid="{8B131A69-84BA-E141-A8DE-FB8597DBB8C7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId65"/>
+  <drawing r:id="rId66"/>
 </worksheet>
 </file>
--- a/Technology/Hardware/Rambus.xlsx
+++ b/Technology/Hardware/Rambus.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA86B14-94FC-7449-B15B-BADD8A1CB9AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC230FED-D017-EF47-AA98-7D7307EA0F4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2659,20 +2659,23 @@
       <sheetName val="Industrials"/>
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
-      <sheetName val="My Stocks"/>
-      <sheetName val="Profitable Software"/>
-      <sheetName val="Compounders"/>
-      <sheetName val="GARP"/>
-      <sheetName val="Value"/>
-      <sheetName val="Aggressive Growth"/>
-      <sheetName val="Other"/>
-      <sheetName val="Short List"/>
+      <sheetName val="Full Portfolio"/>
+      <sheetName val="Fidelity Growth"/>
+      <sheetName val="IRA"/>
+      <sheetName val="Best Mature"/>
+      <sheetName val="To Be Modeled"/>
+      <sheetName val="Hedge Fund Portfolio"/>
+      <sheetName val="Scored Portfolio"/>
+      <sheetName val="GARP HF Buys"/>
+      <sheetName val="Value HF Buys"/>
+      <sheetName val="Aggressive Growth HF Buys"/>
+      <sheetName val="Other HF Buys"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="8">
           <cell r="C8">
-            <v>3.9120000000000002E-2</v>
+            <v>4.3220000000000001E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2692,6 +2695,9 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2818,12 +2824,10 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>68.540000000000006</v>
-    <v>20</v>
-    <v>1.2679</v>
-    <v>1.07</v>
-    <v>1.6957E-2</v>
-    <v>0.17</v>
-    <v>2.6490000000000003E-3</v>
+    <v>23.84</v>
+    <v>1.2929999999999999</v>
+    <v>1.27</v>
+    <v>2.2862E-2</v>
     <v>USD</v>
     <v>Rambus Inc. is a provider of chips and intellectual property (IP) that enable performance improvements for data centers and other markets. The Company's memory subsystems provide chips and IP, which provide security in data-intensive systems. It offers a balanced and diverse portfolio of solutions across chips, silicon IP and patent licensing. Its Rambus Double Data Rate (DDR) memory interface chips for server memory modules enable increased bandwidth and expanded capacity in enterprise and cloud servers. Its portfolio includes DDR5 and DDR4 memory interface chipsets. Its DDR5 chipset solution includes the Registering Clock Driver (RCD), Serial Presence Detect Hubs (SPD Hub) and Temperature Sensors (TS). Rambus Silicon IP includes interface and security IP solutions that move and protect data in advanced data center, government and automotive applications. It sells memory interface chips directly and indirectly to memory module manufacturers and original equipment manufacturers (OEMs).</v>
     <v>765</v>
@@ -2831,25 +2835,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>4453 North First Street, Suite 100, SAN JOSE, CA, 95134 US</v>
-    <v>65.239999999999995</v>
+    <v>57.15</v>
     <v>Semiconductors &amp; Semiconductor Equipment</v>
     <v>Stock</v>
-    <v>45107.993367488278</v>
+    <v>45187.982296469534</v>
     <v>0</v>
-    <v>63.5184</v>
-    <v>6984595000</v>
+    <v>54.85</v>
+    <v>6200851830</v>
     <v>RAMBUS INC.</v>
     <v>RAMBUS INC.</v>
-    <v>64.099999999999994</v>
-    <v>126.9975</v>
-    <v>63.1</v>
-    <v>64.17</v>
-    <v>64.34</v>
-    <v>108845200</v>
+    <v>54.95</v>
+    <v>33.435099999999998</v>
+    <v>55.55</v>
+    <v>56.82</v>
+    <v>109131500</v>
     <v>RMBS</v>
     <v>RAMBUS INC. (XNAS:RMBS)</v>
-    <v>1888127</v>
-    <v>1800261</v>
+    <v>1760104</v>
+    <v>1313564</v>
     <v>1997</v>
   </rv>
   <rv s="2">
@@ -2881,8 +2884,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2903,7 +2904,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2920,7 +2920,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2931,16 +2931,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -3006,19 +3003,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -3063,9 +3054,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -3073,9 +3061,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3437,10 +3422,10 @@
   <dimension ref="A1:AO118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AE85" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AC2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AJ95" sqref="AJ95"/>
+      <selection pane="bottomRight" activeCell="AG9" sqref="AG9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5298,15 +5283,15 @@
       </c>
       <c r="AM16" s="30">
         <f>AN101/AF3</f>
-        <v>15.357745171979341</v>
+        <v>13.63444870523513</v>
       </c>
       <c r="AN16" s="30">
         <f>AN101/AF28</f>
-        <v>-488.091893780573</v>
+        <v>-433.32297903563943</v>
       </c>
       <c r="AO16" s="32">
         <f>AN101/AF107</f>
-        <v>30.316135108857946</v>
+        <v>26.914353927219697</v>
       </c>
     </row>
     <row r="17" spans="1:41" ht="19" x14ac:dyDescent="0.25">
@@ -5635,15 +5620,15 @@
       </c>
       <c r="AM19" s="30">
         <f>AN101/AG3</f>
-        <v>11.703409852546917</v>
+        <v>10.390167275469169</v>
       </c>
       <c r="AN19" s="31">
         <f>AH116/AG31</f>
-        <v>35.65</v>
+        <v>31.566666666666666</v>
       </c>
       <c r="AO19" s="32">
         <f>AN101/AG106</f>
-        <v>41.231375442739079</v>
+        <v>36.604792384887837</v>
       </c>
     </row>
     <row r="20" spans="1:41" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -6019,7 +6004,7 @@
       </c>
       <c r="AO22" s="34">
         <f>AF107/AN101</f>
-        <v>3.2985735035460179E-2</v>
+        <v>3.7154895217033433E-2</v>
       </c>
     </row>
     <row r="23" spans="1:41" ht="19" x14ac:dyDescent="0.25">
@@ -13338,7 +13323,7 @@
       </c>
       <c r="AN94" s="46">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.9120000000000002E-2</v>
+        <v>4.3220000000000001E-2</v>
       </c>
     </row>
     <row r="95" spans="1:40" ht="20" x14ac:dyDescent="0.25">
@@ -13443,7 +13428,7 @@
       </c>
       <c r="AN95" s="48" cm="1">
         <f t="array" ref="AN95">_FV(A1,"Beta")</f>
-        <v>1.2679</v>
+        <v>1.2929999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:40" ht="20" x14ac:dyDescent="0.25">
@@ -13652,7 +13637,7 @@
       </c>
       <c r="AN97" s="45">
         <f>(AN94)+((AN95)*(AN96-AN94))</f>
-        <v>9.6023352000000006E-2</v>
+        <v>9.5948539999999999E-2</v>
       </c>
     </row>
     <row r="98" spans="1:40" ht="19" x14ac:dyDescent="0.25">
@@ -13964,7 +13949,7 @@
       </c>
       <c r="AN100" s="45">
         <f>AN99/AN103</f>
-        <v>6.3281432723163045E-3</v>
+        <v>7.122278541558529E-3</v>
       </c>
     </row>
     <row r="101" spans="1:40" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -14069,7 +14054,7 @@
       </c>
       <c r="AN101" s="50" cm="1">
         <f t="array" ref="AN101">_FV(A1,"Market cap",TRUE)</f>
-        <v>6984595000</v>
+        <v>6200851830</v>
       </c>
     </row>
     <row r="102" spans="1:40" ht="20" x14ac:dyDescent="0.25">
@@ -14174,7 +14159,7 @@
       </c>
       <c r="AN102" s="45">
         <f>AN101/AN103</f>
-        <v>0.99367185672768366</v>
+        <v>0.99287772145844144</v>
       </c>
     </row>
     <row r="103" spans="1:40" ht="20" x14ac:dyDescent="0.25">
@@ -14279,7 +14264,7 @@
       </c>
       <c r="AN103" s="51">
         <f>AN99+AN101</f>
-        <v>7029076000</v>
+        <v>6245332830</v>
       </c>
     </row>
     <row r="104" spans="1:40" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -14540,7 +14525,7 @@
       </c>
       <c r="AN105" s="53">
         <f>(AN100*AN92)+(AN102*AN97)</f>
-        <v>9.5903260861949072E-2</v>
+        <v>9.5813911142483305E-2</v>
       </c>
     </row>
     <row r="106" spans="1:40" ht="19" x14ac:dyDescent="0.25">
@@ -14797,7 +14782,7 @@
       <c r="AJ107" s="26"/>
       <c r="AK107" s="65">
         <f>AK106*(1+AN107)/(AN108-AN107)</f>
-        <v>7141420491.0248022</v>
+        <v>7150431205.2639322</v>
       </c>
       <c r="AL107" s="27" t="s">
         <v>137</v>
@@ -14828,7 +14813,7 @@
       </c>
       <c r="AK108" s="65">
         <f>AK107+AK106</f>
-        <v>7635420491.0248022</v>
+        <v>7644431205.2639322</v>
       </c>
       <c r="AL108" s="27" t="s">
         <v>133</v>
@@ -14838,7 +14823,7 @@
       </c>
       <c r="AN108" s="55">
         <f>AN105</f>
-        <v>9.5903260861949072E-2</v>
+        <v>9.5813911142483305E-2</v>
       </c>
     </row>
     <row r="109" spans="1:40" ht="19" x14ac:dyDescent="0.25">
@@ -14853,7 +14838,7 @@
       </c>
       <c r="AH110" s="50">
         <f>NPV(AN108,AG108,AH108,AI108,AJ108,AK108)</f>
-        <v>5670010376.2583847</v>
+        <v>5677870022.4279957</v>
       </c>
     </row>
     <row r="111" spans="1:40" ht="20" x14ac:dyDescent="0.25">
@@ -14880,7 +14865,7 @@
       </c>
       <c r="AH113" s="50">
         <f>AH110+AH111-AH112</f>
-        <v>5938755376.2583847</v>
+        <v>5946615022.4279957</v>
       </c>
     </row>
     <row r="114" spans="33:34" ht="20" x14ac:dyDescent="0.25">
@@ -14898,7 +14883,7 @@
       </c>
       <c r="AH115" s="61">
         <f>AH113/AH114</f>
-        <v>54.509105299321035</v>
+        <v>54.581245378097044</v>
       </c>
     </row>
     <row r="116" spans="33:34" ht="20" x14ac:dyDescent="0.25">
@@ -14907,7 +14892,7 @@
       </c>
       <c r="AH116" s="62" cm="1">
         <f t="array" ref="AH116">_FV(A1,"Price")</f>
-        <v>64.17</v>
+        <v>56.82</v>
       </c>
     </row>
     <row r="117" spans="33:34" ht="20" x14ac:dyDescent="0.25">
@@ -14916,7 +14901,7 @@
       </c>
       <c r="AH117" s="63">
         <f>AH115/AH116-1</f>
-        <v>-0.15055157707151268</v>
+        <v>-3.9400820519235435E-2</v>
       </c>
     </row>
     <row r="118" spans="33:34" ht="20" x14ac:dyDescent="0.25">
